--- a/migratoryDataNightly.xlsx
+++ b/migratoryDataNightly.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\subze\Downloads\python testing\GEOBIRDMGRTY\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A787CB-ED30-42B1-8AF2-5D978CA1297D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="690" yWindow="2445" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -610,8 +616,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -674,6 +680,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -720,7 +734,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -752,9 +766,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -786,6 +818,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -961,14 +1011,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="D113" sqref="D113"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="9" width="20.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -994,7 +1055,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1005,16 +1066,16 @@
         <v>152</v>
       </c>
       <c r="D2">
-        <v>-0.2280489283866319</v>
+        <v>-0.22804892838663191</v>
       </c>
       <c r="E2">
-        <v>0.3335335431380216</v>
+        <v>0.33353354313802158</v>
       </c>
       <c r="F2">
-        <v>-0.2635750401892887</v>
+        <v>-0.26357504018928868</v>
       </c>
       <c r="G2">
-        <v>0.2615035458479009</v>
+        <v>0.26150354584790092</v>
       </c>
       <c r="H2">
         <v>0.1660260310497351</v>
@@ -1023,7 +1084,7 @@
         <v>0.4842012627686727</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1034,25 +1095,25 @@
         <v>153</v>
       </c>
       <c r="D3">
-        <v>0.1455962858461735</v>
+        <v>0.14559628584617351</v>
       </c>
       <c r="E3">
         <v>0.5402210824712349</v>
       </c>
       <c r="F3">
-        <v>-0.04621541749951555</v>
+        <v>-4.6215417499515549E-2</v>
       </c>
       <c r="G3">
-        <v>0.8465860377725594</v>
+        <v>0.84658603777255936</v>
       </c>
       <c r="H3">
         <v>-0.1938208374574967</v>
       </c>
       <c r="I3">
-        <v>0.4129070734428584</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.41290707344285837</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -1063,25 +1124,25 @@
         <v>153</v>
       </c>
       <c r="D4">
-        <v>-0.1435475463548271</v>
+        <v>-0.14354754635482711</v>
       </c>
       <c r="E4">
-        <v>0.5459973343694643</v>
+        <v>0.54599733436946429</v>
       </c>
       <c r="F4">
-        <v>-0.2572575349942365</v>
+        <v>-0.25725753499423648</v>
       </c>
       <c r="G4">
-        <v>0.2735290733016827</v>
+        <v>0.27352907330168269</v>
       </c>
       <c r="H4">
-        <v>0.1480049261845993</v>
+        <v>0.14800492618459929</v>
       </c>
       <c r="I4">
-        <v>0.5334660736221005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.53346607362210052</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -1098,19 +1159,19 @@
         <v>0.1026689247351296</v>
       </c>
       <c r="F5">
-        <v>-0.5603631400586958</v>
+        <v>-0.56036314005869581</v>
       </c>
       <c r="G5">
-        <v>0.01017432682437167</v>
+        <v>1.0174326824371671E-2</v>
       </c>
       <c r="H5">
-        <v>0.1383203619346381</v>
+        <v>0.13832036193463809</v>
       </c>
       <c r="I5">
-        <v>0.5608603197679767</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.56086031976797668</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -1121,7 +1182,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -1132,25 +1193,25 @@
         <v>155</v>
       </c>
       <c r="D7">
-        <v>-0.5602561658852016</v>
+        <v>-0.56025616588520155</v>
       </c>
       <c r="E7">
-        <v>0.01019185304665781</v>
+        <v>1.019185304665781E-2</v>
       </c>
       <c r="F7">
-        <v>0.06155552015201347</v>
+        <v>6.1555520152013467E-2</v>
       </c>
       <c r="G7">
-        <v>0.7965587111475327</v>
+        <v>0.79655871114753274</v>
       </c>
       <c r="H7">
-        <v>0.1690936902366073</v>
+        <v>0.16909369023660731</v>
       </c>
       <c r="I7">
-        <v>0.4760465187909746</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.47604651879097459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -1161,25 +1222,25 @@
         <v>156</v>
       </c>
       <c r="D8">
-        <v>0.5016582972909541</v>
+        <v>0.50165829729095412</v>
       </c>
       <c r="E8">
-        <v>0.02422019804836558</v>
+        <v>2.4220198048365581E-2</v>
       </c>
       <c r="F8">
-        <v>-0.4878892456937208</v>
+        <v>-0.48788924569372077</v>
       </c>
       <c r="G8">
-        <v>0.02908650491115583</v>
+        <v>2.908650491115583E-2</v>
       </c>
       <c r="H8">
-        <v>0.4163302410545413</v>
+        <v>0.41633024105454131</v>
       </c>
       <c r="I8">
-        <v>0.06786158706341865</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>6.7861587063418646E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -1193,22 +1254,22 @@
         <v>-0.1066314232958654</v>
       </c>
       <c r="E9">
-        <v>0.6545542941356384</v>
+        <v>0.65455429413563837</v>
       </c>
       <c r="F9">
-        <v>-0.3902337951841746</v>
+        <v>-0.39023379518417461</v>
       </c>
       <c r="G9">
-        <v>0.08894039236321175</v>
+        <v>8.8940392363211745E-2</v>
       </c>
       <c r="H9">
-        <v>-0.2242283771968275</v>
+        <v>-0.22422837719682751</v>
       </c>
       <c r="I9">
-        <v>0.3419145148482643</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.34191451484826429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -1219,25 +1280,25 @@
         <v>158</v>
       </c>
       <c r="D10">
-        <v>-0.5087427641729126</v>
+        <v>-0.50874276417291264</v>
       </c>
       <c r="E10">
-        <v>0.02198087110933064</v>
+        <v>2.1980871109330641E-2</v>
       </c>
       <c r="F10">
-        <v>0.02734948421860691</v>
+        <v>2.7349484218606911E-2</v>
       </c>
       <c r="G10">
-        <v>0.9088763916341823</v>
+        <v>0.90887639163418232</v>
       </c>
       <c r="H10">
-        <v>0.0006938879889974367</v>
+        <v>6.938879889974367E-4</v>
       </c>
       <c r="I10">
-        <v>0.9976834784211843</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.99768347842118432</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -1248,25 +1309,25 @@
         <v>159</v>
       </c>
       <c r="D11">
-        <v>-0.00253705858231066</v>
+        <v>-2.5370585823106602E-3</v>
       </c>
       <c r="E11">
-        <v>0.9915302502493136</v>
+        <v>0.99153025024931363</v>
       </c>
       <c r="F11">
-        <v>-0.04069198161751894</v>
+        <v>-4.0691981617518941E-2</v>
       </c>
       <c r="G11">
-        <v>0.8647487907178907</v>
+        <v>0.86474879071789068</v>
       </c>
       <c r="H11">
-        <v>-0.12104285025315</v>
+        <v>-0.12104285025314999</v>
       </c>
       <c r="I11">
-        <v>0.6112145126009162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.61121451260091619</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -1277,25 +1338,25 @@
         <v>160</v>
       </c>
       <c r="D12">
-        <v>-0.1324081069053469</v>
+        <v>-0.13240810690534691</v>
       </c>
       <c r="E12">
-        <v>0.5778834853870266</v>
+        <v>0.57788348538702661</v>
       </c>
       <c r="F12">
         <v>-0.1280173043789086</v>
       </c>
       <c r="G12">
-        <v>0.5906676717346658</v>
+        <v>0.59066767173466583</v>
       </c>
       <c r="H12">
-        <v>0.329191894519512</v>
+        <v>0.32919189451951197</v>
       </c>
       <c r="I12">
-        <v>0.156406240955746</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.15640624095574601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -1309,22 +1370,22 @@
         <v>0.1192857573906267</v>
       </c>
       <c r="E13">
-        <v>0.6164361653417673</v>
+        <v>0.61643616534176726</v>
       </c>
       <c r="F13">
-        <v>-0.6029334766521174</v>
+        <v>-0.60293347665211738</v>
       </c>
       <c r="G13">
-        <v>0.0048932652459663</v>
+        <v>4.8932652459663002E-3</v>
       </c>
       <c r="H13">
         <v>0.1051202797547139</v>
       </c>
       <c r="I13">
-        <v>0.6591641387579507</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.65916413875795066</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -1335,7 +1396,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -1346,25 +1407,25 @@
         <v>159</v>
       </c>
       <c r="D15">
-        <v>0.02945331132100044</v>
+        <v>2.9453311321000441E-2</v>
       </c>
       <c r="E15">
-        <v>0.901898043494523</v>
+        <v>0.90189804349452296</v>
       </c>
       <c r="F15">
-        <v>0.1734088026518349</v>
+        <v>0.17340880265183489</v>
       </c>
       <c r="G15">
-        <v>0.4646932719176474</v>
+        <v>0.46469327191764742</v>
       </c>
       <c r="H15">
-        <v>0.09630247916746239</v>
+        <v>9.6302479167462388E-2</v>
       </c>
       <c r="I15">
-        <v>0.6862953239253448</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.68629532392534476</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -1375,25 +1436,25 @@
         <v>153</v>
       </c>
       <c r="D16">
-        <v>0.6057467823798581</v>
+        <v>0.60574678237985813</v>
       </c>
       <c r="E16">
-        <v>0.004645672711273782</v>
+        <v>4.6456727112737821E-3</v>
       </c>
       <c r="F16">
-        <v>-0.4441655574950382</v>
+        <v>-0.44416555749503822</v>
       </c>
       <c r="G16">
-        <v>0.04976814475017118</v>
+        <v>4.9768144750171182E-2</v>
       </c>
       <c r="H16">
         <v>0.247667155939573</v>
       </c>
       <c r="I16">
-        <v>0.2924335207026716</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>0.29243352070267159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -1404,25 +1465,25 @@
         <v>162</v>
       </c>
       <c r="D17">
-        <v>0.6870961886508808</v>
+        <v>0.68709618865088085</v>
       </c>
       <c r="E17">
-        <v>0.0008173874193349567</v>
+        <v>8.1738741933495666E-4</v>
       </c>
       <c r="F17">
-        <v>-0.5323946390769626</v>
+        <v>-0.53239463907696261</v>
       </c>
       <c r="G17">
-        <v>0.01566831307354928</v>
+        <v>1.5668313073549281E-2</v>
       </c>
       <c r="H17">
-        <v>0.1501850622859698</v>
+        <v>0.15018506228596981</v>
       </c>
       <c r="I17">
-        <v>0.5273857558764052</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>0.52738575587640524</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -1433,25 +1494,25 @@
         <v>153</v>
       </c>
       <c r="D18">
-        <v>0.6192456379133192</v>
+        <v>0.61924563791331921</v>
       </c>
       <c r="E18">
-        <v>0.003596935762806554</v>
+        <v>3.5969357628065539E-3</v>
       </c>
       <c r="F18">
-        <v>-0.5982623180491444</v>
+        <v>-0.59826231804914443</v>
       </c>
       <c r="G18">
-        <v>0.005328357187212805</v>
+        <v>5.3283571872128049E-3</v>
       </c>
       <c r="H18">
-        <v>-0.08279973494876755</v>
+        <v>-8.279973494876755E-2</v>
       </c>
       <c r="I18">
-        <v>0.7285571069324743</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>0.72855710693247433</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -1462,25 +1523,25 @@
         <v>163</v>
       </c>
       <c r="D19">
-        <v>-0.3992172290262607</v>
+        <v>-0.39921722902626072</v>
       </c>
       <c r="E19">
-        <v>0.08120356942739596</v>
+        <v>8.1203569427395955E-2</v>
       </c>
       <c r="F19">
-        <v>0.1437295656193799</v>
+        <v>0.14372956561937991</v>
       </c>
       <c r="G19">
-        <v>0.5454830159946469</v>
+        <v>0.54548301599464688</v>
       </c>
       <c r="H19">
         <v>-0.1191004071476867</v>
       </c>
       <c r="I19">
-        <v>0.6169880223485693</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>0.61698802234856931</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -1494,22 +1555,22 @@
         <v>-0.22900098153491</v>
       </c>
       <c r="E20">
-        <v>0.3314640900339638</v>
+        <v>0.33146409003396382</v>
       </c>
       <c r="F20">
-        <v>0.01886080722540339</v>
+        <v>1.8860807225403391E-2</v>
       </c>
       <c r="G20">
-        <v>0.9370934382777315</v>
+        <v>0.93709343827773151</v>
       </c>
       <c r="H20">
-        <v>0.01055677363056423</v>
+        <v>1.055677363056423E-2</v>
       </c>
       <c r="I20">
-        <v>0.9647669945768405</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>0.96476699457684045</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -1520,25 +1581,25 @@
         <v>164</v>
       </c>
       <c r="D21">
-        <v>-0.3290968335018341</v>
+        <v>-0.32909683350183411</v>
       </c>
       <c r="E21">
         <v>0.1565330527984633</v>
       </c>
       <c r="F21">
-        <v>0.0806472569925844</v>
+        <v>8.0647256992584404E-2</v>
       </c>
       <c r="G21">
-        <v>0.735367981913172</v>
+        <v>0.73536798191317199</v>
       </c>
       <c r="H21">
         <v>0.2260421048402152</v>
       </c>
       <c r="I21">
-        <v>0.3379205991566671</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>0.33792059915666711</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -1549,25 +1610,25 @@
         <v>153</v>
       </c>
       <c r="D22">
-        <v>-0.02669816244191152</v>
+        <v>-2.6698162441911519E-2</v>
       </c>
       <c r="E22">
-        <v>0.9110381383654422</v>
+        <v>0.91103813836544223</v>
       </c>
       <c r="F22">
-        <v>0.1107395785865073</v>
+        <v>0.11073957858650731</v>
       </c>
       <c r="G22">
-        <v>0.6420831876836259</v>
+        <v>0.64208318768362593</v>
       </c>
       <c r="H22">
-        <v>-0.001871460534912966</v>
+        <v>-1.8714605349129661E-3</v>
       </c>
       <c r="I22">
-        <v>0.9937522426409489</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0.99375224264094886</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -1578,25 +1639,25 @@
         <v>157</v>
       </c>
       <c r="D23">
-        <v>-0.07956572327389881</v>
+        <v>-7.9565723273898811E-2</v>
       </c>
       <c r="E23">
-        <v>0.7387973992193653</v>
+        <v>0.73879739921936527</v>
       </c>
       <c r="F23">
         <v>-0.1635848588459605</v>
       </c>
       <c r="G23">
-        <v>0.4907396892542454</v>
+        <v>0.49073968925424538</v>
       </c>
       <c r="H23">
-        <v>0.04174803040596615</v>
+        <v>4.1748030405966148E-2</v>
       </c>
       <c r="I23">
         <v>0.8612708438395289</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -1610,22 +1671,22 @@
         <v>-0.5027285135434052</v>
       </c>
       <c r="E24">
-        <v>0.02387080625247087</v>
+        <v>2.3870806252470868E-2</v>
       </c>
       <c r="F24">
-        <v>0.1448706976290786</v>
+        <v>0.14487069762907859</v>
       </c>
       <c r="G24">
-        <v>0.5422636195525494</v>
+        <v>0.54226361955254943</v>
       </c>
       <c r="H24">
-        <v>-0.04384899243479458</v>
+        <v>-4.3848992434794579E-2</v>
       </c>
       <c r="I24">
-        <v>0.8543589885552808</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>0.85435898855528081</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -1636,25 +1697,25 @@
         <v>166</v>
       </c>
       <c r="D25">
-        <v>-0.5402091435391788</v>
+        <v>-0.54020914353917882</v>
       </c>
       <c r="E25">
-        <v>0.01393746260619478</v>
+        <v>1.393746260619478E-2</v>
       </c>
       <c r="F25">
-        <v>0.4872213073898927</v>
+        <v>0.48722130738989272</v>
       </c>
       <c r="G25">
-        <v>0.02934074589755995</v>
+        <v>2.9340745897559951E-2</v>
       </c>
       <c r="H25">
-        <v>-0.3638319724120426</v>
+        <v>-0.36383197241204263</v>
       </c>
       <c r="I25">
-        <v>0.1148086486197405</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>0.11480864861974049</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -1665,25 +1726,25 @@
         <v>167</v>
       </c>
       <c r="D26">
-        <v>-0.001846365123549701</v>
+        <v>-1.8463651235497011E-3</v>
       </c>
       <c r="E26">
-        <v>0.9938360206143734</v>
+        <v>0.99383602061437337</v>
       </c>
       <c r="F26">
         <v>0.1862654552469834</v>
       </c>
       <c r="G26">
-        <v>0.4316999197619872</v>
+        <v>0.43169991976198718</v>
       </c>
       <c r="H26">
-        <v>-0.31406553408208</v>
+        <v>-0.31406553408207999</v>
       </c>
       <c r="I26">
         <v>0.1774897460831508</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -1694,25 +1755,25 @@
         <v>153</v>
       </c>
       <c r="D27">
-        <v>0.2200832713545025</v>
+        <v>0.22008327135450251</v>
       </c>
       <c r="E27">
-        <v>0.3511452272539917</v>
+        <v>0.35114522725399172</v>
       </c>
       <c r="F27">
         <v>-0.3902799491605502</v>
       </c>
       <c r="G27">
-        <v>0.08889930650336726</v>
+        <v>8.8899306503367262E-2</v>
       </c>
       <c r="H27">
         <v>-0.1691220893237656</v>
       </c>
       <c r="I27">
-        <v>0.4759713485867552</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>0.47597134858675522</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -1723,25 +1784,25 @@
         <v>162</v>
       </c>
       <c r="D28">
-        <v>0.31619951875288</v>
+        <v>0.31619951875287999</v>
       </c>
       <c r="E28">
         <v>0.1744040858234685</v>
       </c>
       <c r="F28">
-        <v>-0.4946429521265733</v>
+        <v>-0.49464295212657328</v>
       </c>
       <c r="G28">
-        <v>0.02661183986491245</v>
+        <v>2.6611839864912449E-2</v>
       </c>
       <c r="H28">
-        <v>0.04062418471681176</v>
+        <v>4.0624184716811763E-2</v>
       </c>
       <c r="I28">
-        <v>0.8649721526911002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>0.86497215269110017</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -1755,22 +1816,22 @@
         <v>-0.6281866806546863</v>
       </c>
       <c r="E29">
-        <v>0.00301691857022296</v>
+        <v>3.0169185702229599E-3</v>
       </c>
       <c r="F29">
-        <v>0.3764356623686989</v>
+        <v>0.37643566236869891</v>
       </c>
       <c r="G29">
-        <v>0.1018607108372969</v>
+        <v>0.10186071083729691</v>
       </c>
       <c r="H29">
-        <v>-0.1866869686540004</v>
+        <v>-0.18668696865400039</v>
       </c>
       <c r="I29">
         <v>0.43063970648382</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -1781,7 +1842,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0</v>
       </c>
@@ -1792,25 +1853,25 @@
         <v>159</v>
       </c>
       <c r="D31">
-        <v>0.06373785671417294</v>
+        <v>6.3737856714172939E-2</v>
       </c>
       <c r="E31">
-        <v>0.7894986957543377</v>
+        <v>0.78949869575433773</v>
       </c>
       <c r="F31">
-        <v>-0.01480273482037902</v>
+        <v>-1.480273482037902E-2</v>
       </c>
       <c r="G31">
-        <v>0.9506103701466271</v>
+        <v>0.95061037014662708</v>
       </c>
       <c r="H31">
-        <v>0.01475216629624396</v>
+        <v>1.4752166296243961E-2</v>
       </c>
       <c r="I31">
-        <v>0.9507788969670738</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>0.95077889696707385</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -1821,25 +1882,25 @@
         <v>170</v>
       </c>
       <c r="D32">
-        <v>-0.8222894986117321</v>
+        <v>-0.82228949861173206</v>
       </c>
       <c r="E32">
-        <v>8.636378063453155E-06</v>
+        <v>8.6363780634531547E-6</v>
       </c>
       <c r="F32">
-        <v>0.3928604084437509</v>
+        <v>0.39286040844375092</v>
       </c>
       <c r="G32">
-        <v>0.08662435109812759</v>
+        <v>8.6624351098127592E-2</v>
       </c>
       <c r="H32">
-        <v>-0.1510679740293119</v>
+        <v>-0.15106797402931191</v>
       </c>
       <c r="I32">
         <v>0.5249325765925793</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0</v>
       </c>
@@ -1850,25 +1911,25 @@
         <v>171</v>
       </c>
       <c r="D33">
-        <v>0.3692870883970412</v>
+        <v>0.36928708839704122</v>
       </c>
       <c r="E33">
         <v>0.109066980369734</v>
       </c>
       <c r="F33">
-        <v>-0.05247847923329451</v>
+        <v>-5.247847923329451E-2</v>
       </c>
       <c r="G33">
-        <v>0.8260813840888657</v>
+        <v>0.82608138408886567</v>
       </c>
       <c r="H33">
-        <v>-0.0722400618290345</v>
+        <v>-7.2240061829034502E-2</v>
       </c>
       <c r="I33">
-        <v>0.7621484005937738</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>0.76214840059377376</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>0</v>
       </c>
@@ -1879,25 +1940,25 @@
         <v>156</v>
       </c>
       <c r="D34">
-        <v>-0.7090187990330749</v>
+        <v>-0.70901879903307485</v>
       </c>
       <c r="E34">
-        <v>0.0004651935757474712</v>
+        <v>4.6519357574747121E-4</v>
       </c>
       <c r="F34">
-        <v>0.2582665134456599</v>
+        <v>0.25826651344565987</v>
       </c>
       <c r="G34">
-        <v>0.2715856714288196</v>
+        <v>0.27158567142881962</v>
       </c>
       <c r="H34">
-        <v>-0.2224115064068996</v>
+        <v>-0.22241150640689961</v>
       </c>
       <c r="I34">
-        <v>0.3459428815059643</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>0.34594288150596431</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -1911,22 +1972,22 @@
         <v>0.1310776950611417</v>
       </c>
       <c r="E35">
-        <v>0.5817445069104729</v>
+        <v>0.58174450691047286</v>
       </c>
       <c r="F35">
         <v>0.122590690679136</v>
       </c>
       <c r="G35">
-        <v>0.6066296143061607</v>
+        <v>0.60662961430616069</v>
       </c>
       <c r="H35">
-        <v>0.1600994593370959</v>
+        <v>0.16009945933709591</v>
       </c>
       <c r="I35">
-        <v>0.5001495110813841</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>0.50014951108138406</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -1937,25 +1998,25 @@
         <v>165</v>
       </c>
       <c r="D36">
-        <v>-0.1550290651339027</v>
+        <v>-0.15502906513390269</v>
       </c>
       <c r="E36">
-        <v>0.513992806596721</v>
+        <v>0.51399280659672097</v>
       </c>
       <c r="F36">
-        <v>0.1810660245346133</v>
+        <v>0.18106602453461329</v>
       </c>
       <c r="G36">
-        <v>0.444890867493743</v>
+        <v>0.44489086749374301</v>
       </c>
       <c r="H36">
-        <v>0.02344406104751797</v>
+        <v>2.3444061047517971E-2</v>
       </c>
       <c r="I36">
-        <v>0.9218472760258846</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>0.92184727602588457</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>0</v>
       </c>
@@ -1966,7 +2027,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -1977,25 +2038,25 @@
         <v>159</v>
       </c>
       <c r="D38">
-        <v>-0.04779434421755165</v>
+        <v>-4.7794344217551653E-2</v>
       </c>
       <c r="E38">
-        <v>0.8414073005908645</v>
+        <v>0.84140730059086455</v>
       </c>
       <c r="F38">
-        <v>0.01687078188437662</v>
+        <v>1.6870781884376618E-2</v>
       </c>
       <c r="G38">
-        <v>0.9437201161187533</v>
+        <v>0.94372011611875328</v>
       </c>
       <c r="H38">
-        <v>-0.2049178261439233</v>
+        <v>-0.20491782614392329</v>
       </c>
       <c r="I38">
-        <v>0.3861265932948585</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>0.38612659329485849</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>0</v>
       </c>
@@ -2006,25 +2067,25 @@
         <v>172</v>
       </c>
       <c r="D39">
-        <v>-0.04845453495965066</v>
+        <v>-4.8454534959650658E-2</v>
       </c>
       <c r="E39">
-        <v>0.839243779974107</v>
+        <v>0.83924377997410704</v>
       </c>
       <c r="F39">
-        <v>-0.1520015758822647</v>
+        <v>-0.15200157588226471</v>
       </c>
       <c r="G39">
         <v>0.5223443761456672</v>
       </c>
       <c r="H39">
-        <v>0.05759043056141375</v>
+        <v>5.7590430561413747E-2</v>
       </c>
       <c r="I39">
         <v>0.8094247243253917</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>0</v>
       </c>
@@ -2035,25 +2096,25 @@
         <v>155</v>
       </c>
       <c r="D40">
-        <v>-0.502941184851936</v>
+        <v>-0.50294118485193595</v>
       </c>
       <c r="E40">
-        <v>0.02380185343830859</v>
+        <v>2.3801853438308589E-2</v>
       </c>
       <c r="F40">
-        <v>0.1940364845209263</v>
+        <v>0.19403648452092631</v>
       </c>
       <c r="G40">
-        <v>0.412377280781333</v>
+        <v>0.41237728078133301</v>
       </c>
       <c r="H40">
-        <v>-0.01957397941878297</v>
+        <v>-1.9573979418782968E-2</v>
       </c>
       <c r="I40">
         <v>0.9347195599933148</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>0</v>
       </c>
@@ -2064,7 +2125,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>0</v>
       </c>
@@ -2075,7 +2136,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>0</v>
       </c>
@@ -2086,25 +2147,25 @@
         <v>153</v>
       </c>
       <c r="D43">
-        <v>0.3996839658912802</v>
+        <v>0.39968396589128019</v>
       </c>
       <c r="E43">
-        <v>0.08081571365810661</v>
+        <v>8.0815713658106608E-2</v>
       </c>
       <c r="F43">
-        <v>-0.1007975352045598</v>
+        <v>-0.10079753520455979</v>
       </c>
       <c r="G43">
         <v>0.6724159678285484</v>
       </c>
       <c r="H43">
-        <v>-0.03979414717961083</v>
+        <v>-3.9794147179610828E-2</v>
       </c>
       <c r="I43">
-        <v>0.8677075679863047</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>0.86770756798630466</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>0</v>
       </c>
@@ -2115,25 +2176,25 @@
         <v>153</v>
       </c>
       <c r="D44">
-        <v>0.2193188845148855</v>
+        <v>0.21931888451488549</v>
       </c>
       <c r="E44">
-        <v>0.3528630407250317</v>
+        <v>0.35286304072503172</v>
       </c>
       <c r="F44">
-        <v>0.2544780753878753</v>
+        <v>0.25447807538787531</v>
       </c>
       <c r="G44">
-        <v>0.2789274108096886</v>
+        <v>0.27892741080968858</v>
       </c>
       <c r="H44">
-        <v>0.3920476827085045</v>
+        <v>0.39204768270850449</v>
       </c>
       <c r="I44">
-        <v>0.0873361739669838</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>8.7336173966983802E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>0</v>
       </c>
@@ -2144,25 +2205,25 @@
         <v>173</v>
       </c>
       <c r="D45">
-        <v>-0.04916246798583548</v>
+        <v>-4.9162467985835477E-2</v>
       </c>
       <c r="E45">
-        <v>0.8369250357626979</v>
+        <v>0.83692503576269794</v>
       </c>
       <c r="F45">
-        <v>0.1368839354625208</v>
+        <v>0.13688393546252081</v>
       </c>
       <c r="G45">
-        <v>0.5649757481576553</v>
+        <v>0.56497574815765528</v>
       </c>
       <c r="H45">
-        <v>-0.3344765738374207</v>
+        <v>-0.33447657383742069</v>
       </c>
       <c r="I45">
-        <v>0.1494680222467293</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>0.14946802224672931</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>0</v>
       </c>
@@ -2173,25 +2234,25 @@
         <v>165</v>
       </c>
       <c r="D46">
-        <v>0.3745259746700818</v>
+        <v>0.37452597467008181</v>
       </c>
       <c r="E46">
         <v>0.1037509381984535</v>
       </c>
       <c r="F46">
-        <v>-0.05536336234852084</v>
+        <v>-5.5363362348520843E-2</v>
       </c>
       <c r="G46">
-        <v>0.8166720875118398</v>
+        <v>0.81667208751183984</v>
       </c>
       <c r="H46">
-        <v>-0.06810359957597138</v>
+        <v>-6.8103599575971382E-2</v>
       </c>
       <c r="I46">
-        <v>0.7754230079391968</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>0.77542300793919683</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>0</v>
       </c>
@@ -2202,25 +2263,25 @@
         <v>174</v>
       </c>
       <c r="D47">
-        <v>0.3006612341007481</v>
+        <v>0.30066123410074808</v>
       </c>
       <c r="E47">
-        <v>0.1977214397684947</v>
+        <v>0.19772143976849471</v>
       </c>
       <c r="F47">
-        <v>-0.6142065958959603</v>
+        <v>-0.61420659589596027</v>
       </c>
       <c r="G47">
-        <v>0.003962657728764348</v>
+        <v>3.962657728764348E-3</v>
       </c>
       <c r="H47">
         <v>-0.1232171368799688</v>
       </c>
       <c r="I47">
-        <v>0.6047780049104379</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>0.60477800491043787</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>0</v>
       </c>
@@ -2231,7 +2292,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>0</v>
       </c>
@@ -2242,7 +2303,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>0</v>
       </c>
@@ -2253,25 +2314,25 @@
         <v>162</v>
       </c>
       <c r="D50">
-        <v>0.4196613259226125</v>
+        <v>0.41966132592261252</v>
       </c>
       <c r="E50">
-        <v>0.06546854989368552</v>
+        <v>6.5468549893685515E-2</v>
       </c>
       <c r="F50">
         <v>-0.1093540198566168</v>
       </c>
       <c r="G50">
-        <v>0.6462792282349497</v>
+        <v>0.64627922823494965</v>
       </c>
       <c r="H50">
-        <v>-0.07085875384312643</v>
+        <v>-7.0858753843126426E-2</v>
       </c>
       <c r="I50">
-        <v>0.7665743406788025</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>0.76657434067880248</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>0</v>
       </c>
@@ -2282,25 +2343,25 @@
         <v>153</v>
       </c>
       <c r="D51">
-        <v>0.6189122016353513</v>
+        <v>0.61891220163535132</v>
       </c>
       <c r="E51">
-        <v>0.003620237322618511</v>
+        <v>3.620237322618511E-3</v>
       </c>
       <c r="F51">
-        <v>-0.4175764566101585</v>
+        <v>-0.41757645661015852</v>
       </c>
       <c r="G51">
-        <v>0.06695874325839174</v>
+        <v>6.695874325839174E-2</v>
       </c>
       <c r="H51">
-        <v>0.03177198721733181</v>
+        <v>3.1771987217331807E-2</v>
       </c>
       <c r="I51">
-        <v>0.8942150833050382</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>0.89421508330503818</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>0</v>
       </c>
@@ -2311,25 +2372,25 @@
         <v>175</v>
       </c>
       <c r="D52">
-        <v>0.2695902713536323</v>
+        <v>0.26959027135363228</v>
       </c>
       <c r="E52">
-        <v>0.2503688498867906</v>
+        <v>0.25036884988679059</v>
       </c>
       <c r="F52">
-        <v>-0.06362338102185169</v>
+        <v>-6.3623381021851694E-2</v>
       </c>
       <c r="G52">
-        <v>0.7898686456303871</v>
+        <v>0.78986864563038706</v>
       </c>
       <c r="H52">
-        <v>0.2738571137375135</v>
+        <v>0.27385711373751348</v>
       </c>
       <c r="I52">
-        <v>0.2426568617961349</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>0.24265686179613491</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>0</v>
       </c>
@@ -2340,25 +2401,25 @@
         <v>155</v>
       </c>
       <c r="D53">
-        <v>0.02188826149851207</v>
+        <v>2.1888261498512071E-2</v>
       </c>
       <c r="E53">
-        <v>0.9270199494110055</v>
+        <v>0.92701994941100552</v>
       </c>
       <c r="F53">
-        <v>-0.2091423783610558</v>
+        <v>-0.20914237836105579</v>
       </c>
       <c r="G53">
-        <v>0.3761925825604067</v>
+        <v>0.37619258256040672</v>
       </c>
       <c r="H53">
-        <v>0.158150556477836</v>
+        <v>0.15815055647783599</v>
       </c>
       <c r="I53">
-        <v>0.5054489600127813</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>0.50544896001278128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>0</v>
       </c>
@@ -2369,7 +2430,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>0</v>
       </c>
@@ -2380,25 +2441,25 @@
         <v>165</v>
       </c>
       <c r="D55">
-        <v>0.4144546949523372</v>
+        <v>0.41445469495233722</v>
       </c>
       <c r="E55">
-        <v>0.06923755380623764</v>
+        <v>6.9237553806237639E-2</v>
       </c>
       <c r="F55">
-        <v>-0.3393472952869034</v>
+        <v>-0.33934729528690338</v>
       </c>
       <c r="G55">
-        <v>0.1432659179517647</v>
+        <v>0.14326591795176469</v>
       </c>
       <c r="H55">
-        <v>0.1949849946426301</v>
+        <v>0.19498499464263011</v>
       </c>
       <c r="I55">
-        <v>0.4100513976420271</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>0.41005139764202708</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>0</v>
       </c>
@@ -2409,25 +2470,25 @@
         <v>157</v>
       </c>
       <c r="D56">
-        <v>-0.3403595450230608</v>
+        <v>-0.34035954502306082</v>
       </c>
       <c r="E56">
-        <v>0.1419999671683957</v>
+        <v>0.14199996716839569</v>
       </c>
       <c r="F56">
-        <v>-0.1606515020728118</v>
+        <v>-0.16065150207281181</v>
       </c>
       <c r="G56">
-        <v>0.4986533118466406</v>
+        <v>0.49865331184664058</v>
       </c>
       <c r="H56">
-        <v>-0.5369587149819371</v>
+        <v>-0.53695871498193715</v>
       </c>
       <c r="I56">
-        <v>0.01463765883686231</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>1.463765883686231E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>0</v>
       </c>
@@ -2441,22 +2502,22 @@
         <v>-0.1152849675181444</v>
       </c>
       <c r="E57">
-        <v>0.6283915897484978</v>
+        <v>0.62839158974849785</v>
       </c>
       <c r="F57">
         <v>0.1919894081136321</v>
       </c>
       <c r="G57">
-        <v>0.4174212776187478</v>
+        <v>0.41742127761874781</v>
       </c>
       <c r="H57">
-        <v>0.12036858199223</v>
+        <v>0.12036858199222999</v>
       </c>
       <c r="I57">
-        <v>0.6132161566254096</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>0.61321615662540963</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>0</v>
       </c>
@@ -2467,7 +2528,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>0</v>
       </c>
@@ -2478,25 +2539,25 @@
         <v>155</v>
       </c>
       <c r="D59">
-        <v>-0.278567690344766</v>
+        <v>-0.27856769034476597</v>
       </c>
       <c r="E59">
         <v>0.2343220561065569</v>
       </c>
       <c r="F59">
-        <v>0.2994787979355459</v>
+        <v>0.29947879793554588</v>
       </c>
       <c r="G59">
-        <v>0.1995770900760724</v>
+        <v>0.19957709007607241</v>
       </c>
       <c r="H59">
-        <v>-0.03481278221722937</v>
+        <v>-3.4812782217229367E-2</v>
       </c>
       <c r="I59">
         <v>0.8841532066443456</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>0</v>
       </c>
@@ -2507,25 +2568,25 @@
         <v>154</v>
       </c>
       <c r="D60">
-        <v>0.1904590578877111</v>
+        <v>0.19045905788771109</v>
       </c>
       <c r="E60">
-        <v>0.4212136523018687</v>
+        <v>0.42121365230186869</v>
       </c>
       <c r="F60">
-        <v>-0.5661038956714708</v>
+        <v>-0.56610389567147079</v>
       </c>
       <c r="G60">
-        <v>0.009269055405901344</v>
+        <v>9.2690554059013438E-3</v>
       </c>
       <c r="H60">
         <v>0.1011271596279452</v>
       </c>
       <c r="I60">
-        <v>0.6714021272451191</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>0.67140212724511905</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>0</v>
       </c>
@@ -2536,25 +2597,25 @@
         <v>153</v>
       </c>
       <c r="D61">
-        <v>0.164733770634712</v>
+        <v>0.16473377063471201</v>
       </c>
       <c r="E61">
         <v>0.4876570594153149</v>
       </c>
       <c r="F61">
-        <v>-0.3815459070628969</v>
+        <v>-0.38154590706289693</v>
       </c>
       <c r="G61">
-        <v>0.09692583299862841</v>
+        <v>9.6925832998628406E-2</v>
       </c>
       <c r="H61">
-        <v>-0.1570583386552908</v>
+        <v>-0.15705833865529081</v>
       </c>
       <c r="I61">
-        <v>0.5084306781311692</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>0.50843067813116916</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>0</v>
       </c>
@@ -2565,7 +2626,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>0</v>
       </c>
@@ -2576,7 +2637,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>0</v>
       </c>
@@ -2587,25 +2648,25 @@
         <v>176</v>
       </c>
       <c r="D64">
-        <v>-0.1444267869480867</v>
+        <v>-0.14442678694808669</v>
       </c>
       <c r="E64">
-        <v>0.5435149642607747</v>
+        <v>0.54351496426077472</v>
       </c>
       <c r="F64">
-        <v>0.2591750060848368</v>
+        <v>0.25917500608483679</v>
       </c>
       <c r="G64">
-        <v>0.2698432274931477</v>
+        <v>0.26984322749314771</v>
       </c>
       <c r="H64">
-        <v>0.02095319759851089</v>
+        <v>2.095319759851089E-2</v>
       </c>
       <c r="I64">
-        <v>0.9301301901860798</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>0.93013019018607979</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>0</v>
       </c>
@@ -2616,25 +2677,25 @@
         <v>153</v>
       </c>
       <c r="D65">
-        <v>0.2952101251586194</v>
+        <v>0.29521012515861939</v>
       </c>
       <c r="E65">
-        <v>0.2063726411428189</v>
+        <v>0.20637264114281889</v>
       </c>
       <c r="F65">
-        <v>-0.5017414385925846</v>
+        <v>-0.50174143859258458</v>
       </c>
       <c r="G65">
-        <v>0.02419291093936689</v>
+        <v>2.4192910939366891E-2</v>
       </c>
       <c r="H65">
-        <v>-0.2159258480534149</v>
+        <v>-0.21592584805341489</v>
       </c>
       <c r="I65">
-        <v>0.3605466867371034</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>0.36054668673710338</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>0</v>
       </c>
@@ -2645,25 +2706,25 @@
         <v>177</v>
       </c>
       <c r="D66">
-        <v>-0.2975316456386912</v>
+        <v>-0.29753164563869122</v>
       </c>
       <c r="E66">
-        <v>0.2026580996531001</v>
+        <v>0.20265809965310011</v>
       </c>
       <c r="F66">
-        <v>-0.0313900670508659</v>
+        <v>-3.1390067050865902E-2</v>
       </c>
       <c r="G66">
-        <v>0.8954799745010434</v>
+        <v>0.89547997450104344</v>
       </c>
       <c r="H66">
         <v>0.2151748466862925</v>
       </c>
       <c r="I66">
-        <v>0.3622602195497484</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>0.36226021954974841</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>0</v>
       </c>
@@ -2674,7 +2735,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>0</v>
       </c>
@@ -2685,25 +2746,25 @@
         <v>179</v>
       </c>
       <c r="D68">
-        <v>-0.5996503857130364</v>
+        <v>-0.59965038571303642</v>
       </c>
       <c r="E68">
-        <v>0.005195865044176057</v>
+        <v>5.1958650441760569E-3</v>
       </c>
       <c r="F68">
-        <v>0.5008229355535692</v>
+        <v>0.50082293555356916</v>
       </c>
       <c r="G68">
-        <v>0.02449571872567119</v>
+        <v>2.4495718725671189E-2</v>
       </c>
       <c r="H68">
-        <v>0.03304835079797</v>
+        <v>3.304835079797E-2</v>
       </c>
       <c r="I68">
-        <v>0.8899896618962236</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>0.88998966189622364</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>0</v>
       </c>
@@ -2717,22 +2778,22 @@
         <v>0.5279305236798727</v>
       </c>
       <c r="E69">
-        <v>0.0167319668459484</v>
+        <v>1.6731966845948399E-2</v>
       </c>
       <c r="F69">
-        <v>-0.5795108652479268</v>
+        <v>-0.57951086524792683</v>
       </c>
       <c r="G69">
-        <v>0.007408150267050441</v>
+        <v>7.4081502670504413E-3</v>
       </c>
       <c r="H69">
         <v>0.4808385512837815</v>
       </c>
       <c r="I69">
-        <v>0.03185925617615499</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>3.1859256176154989E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>0</v>
       </c>
@@ -2743,13 +2804,13 @@
         <v>181</v>
       </c>
       <c r="D70">
-        <v>-0.3640267454621599</v>
+        <v>-0.36402674546215991</v>
       </c>
       <c r="E70">
         <v>0.1145999813935266</v>
       </c>
       <c r="F70">
-        <v>0.04353492809697773</v>
+        <v>4.3534928096977732E-2</v>
       </c>
       <c r="G70">
         <v>0.8553915770799625</v>
@@ -2761,7 +2822,7 @@
         <v>0.6115890861297737</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>0</v>
       </c>
@@ -2772,25 +2833,25 @@
         <v>182</v>
       </c>
       <c r="D71">
-        <v>-0.03404398826169008</v>
+        <v>-3.4043988261690077E-2</v>
       </c>
       <c r="E71">
-        <v>0.8866955645257318</v>
+        <v>0.88669556452573184</v>
       </c>
       <c r="F71">
-        <v>0.0438398797745877</v>
+        <v>4.3839879774587698E-2</v>
       </c>
       <c r="G71">
-        <v>0.8543889461824863</v>
+        <v>0.85438894618248629</v>
       </c>
       <c r="H71">
-        <v>-0.06239240273877369</v>
+        <v>-6.2392402738773688E-2</v>
       </c>
       <c r="I71">
-        <v>0.7938495054741807</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>0.79384950547418065</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>0</v>
       </c>
@@ -2801,25 +2862,25 @@
         <v>165</v>
       </c>
       <c r="D72">
-        <v>-0.3792953975229476</v>
+        <v>-0.37929539752294761</v>
       </c>
       <c r="E72">
-        <v>0.09907711722254878</v>
+        <v>9.9077117222548777E-2</v>
       </c>
       <c r="F72">
-        <v>0.37993211368906</v>
+        <v>0.37993211368905999</v>
       </c>
       <c r="G72">
-        <v>0.098464976874697</v>
+        <v>9.8464976874697005E-2</v>
       </c>
       <c r="H72">
-        <v>0.1813242099355908</v>
+        <v>0.18132420993559081</v>
       </c>
       <c r="I72">
-        <v>0.4442309407273342</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>0.44423094072733421</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>0</v>
       </c>
@@ -2830,25 +2891,25 @@
         <v>155</v>
       </c>
       <c r="D73">
-        <v>-0.7929928196152281</v>
+        <v>-0.79299281961522805</v>
       </c>
       <c r="E73">
-        <v>3.041027972673942E-05</v>
+        <v>3.041027972673942E-5</v>
       </c>
       <c r="F73">
-        <v>0.3505871251066797</v>
+        <v>0.35058712510667972</v>
       </c>
       <c r="G73">
         <v>0.1296470139184662</v>
       </c>
       <c r="H73">
-        <v>-0.3351405765992426</v>
+        <v>-0.33514057659924262</v>
       </c>
       <c r="I73">
-        <v>0.1486116894576406</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>0.14861168945764061</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>0</v>
       </c>
@@ -2859,16 +2920,16 @@
         <v>156</v>
       </c>
       <c r="D74">
-        <v>-0.6932662078993493</v>
+        <v>-0.69326620789934934</v>
       </c>
       <c r="E74">
-        <v>0.0007008650516483002</v>
+        <v>7.0086505164830017E-4</v>
       </c>
       <c r="F74">
         <v>0.5646503617057459</v>
       </c>
       <c r="G74">
-        <v>0.009491811822802535</v>
+        <v>9.4918118228025355E-3</v>
       </c>
       <c r="H74">
         <v>-0.2246804888723978</v>
@@ -2877,7 +2938,7 @@
         <v>0.340916371710488</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>0</v>
       </c>
@@ -2888,25 +2949,25 @@
         <v>183</v>
       </c>
       <c r="D75">
-        <v>0.7750512993421814</v>
+        <v>0.77505129934218142</v>
       </c>
       <c r="E75">
-        <v>5.985588224866899E-05</v>
+        <v>5.9855882248668993E-5</v>
       </c>
       <c r="F75">
-        <v>-0.5225902002853641</v>
+        <v>-0.52259020028536407</v>
       </c>
       <c r="G75">
-        <v>0.01807956480361863</v>
+        <v>1.8079564803618629E-2</v>
       </c>
       <c r="H75">
-        <v>0.3366144713750401</v>
+        <v>0.33661447137504008</v>
       </c>
       <c r="I75">
-        <v>0.1467231192210816</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>0.14672311922108161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>0</v>
       </c>
@@ -2917,25 +2978,25 @@
         <v>154</v>
       </c>
       <c r="D76">
-        <v>-0.06975190838030036</v>
+        <v>-6.9751908380300362E-2</v>
       </c>
       <c r="E76">
-        <v>0.7701258947329682</v>
+        <v>0.77012589473296822</v>
       </c>
       <c r="F76">
-        <v>-0.2003465375057057</v>
+        <v>-0.20034653750570569</v>
       </c>
       <c r="G76">
-        <v>0.3970388821158297</v>
+        <v>0.39703888211582972</v>
       </c>
       <c r="H76">
-        <v>-0.3406864786733317</v>
+        <v>-0.34068647867333168</v>
       </c>
       <c r="I76">
         <v>0.1415927758161474</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>0</v>
       </c>
@@ -2946,25 +3007,25 @@
         <v>180</v>
       </c>
       <c r="D77">
-        <v>-0.374825061578918</v>
+        <v>-0.37482506157891798</v>
       </c>
       <c r="E77">
         <v>0.1034532305293267</v>
       </c>
       <c r="F77">
-        <v>0.3162020034119051</v>
+        <v>0.31620200341190507</v>
       </c>
       <c r="G77">
-        <v>0.1744005145727477</v>
+        <v>0.17440051457274769</v>
       </c>
       <c r="H77">
         <v>-0.204391276881179</v>
       </c>
       <c r="I77">
-        <v>0.3873749339703492</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>0.38737493397034922</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>0</v>
       </c>
@@ -2975,25 +3036,25 @@
         <v>154</v>
       </c>
       <c r="D78">
-        <v>-0.1989548516029467</v>
+        <v>-0.19895485160294671</v>
       </c>
       <c r="E78">
-        <v>0.4003944310653149</v>
+        <v>0.40039443106531492</v>
       </c>
       <c r="F78">
-        <v>0.03086174718612368</v>
+        <v>3.0861747186123681E-2</v>
       </c>
       <c r="G78">
-        <v>0.89723013039118</v>
+        <v>0.89723013039118005</v>
       </c>
       <c r="H78">
-        <v>0.2029016006046848</v>
+        <v>0.20290160060468479</v>
       </c>
       <c r="I78">
-        <v>0.390918806310559</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>0.39091880631055897</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>0</v>
       </c>
@@ -3004,7 +3065,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>0</v>
       </c>
@@ -3015,25 +3076,25 @@
         <v>157</v>
       </c>
       <c r="D80">
-        <v>-0.5974384838084749</v>
+        <v>-0.59743848380847486</v>
       </c>
       <c r="E80">
-        <v>0.005408300013824374</v>
+        <v>5.4083000138243744E-3</v>
       </c>
       <c r="F80">
-        <v>0.2898499489695929</v>
+        <v>0.28984994896959287</v>
       </c>
       <c r="G80">
         <v>0.2151208395781446</v>
       </c>
       <c r="H80">
-        <v>-0.3460995478517979</v>
+        <v>-0.34609954785179792</v>
       </c>
       <c r="I80">
-        <v>0.1349695711412238</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>0.13496957114122379</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>0</v>
       </c>
@@ -3044,25 +3105,25 @@
         <v>156</v>
       </c>
       <c r="D81">
-        <v>-0.3676567517534284</v>
+        <v>-0.36765675175342838</v>
       </c>
       <c r="E81">
         <v>0.1107607500087211</v>
       </c>
       <c r="F81">
-        <v>0.2352308638937831</v>
+        <v>0.23523086389378309</v>
       </c>
       <c r="G81">
-        <v>0.3181103525836841</v>
+        <v>0.31811035258368409</v>
       </c>
       <c r="H81">
         <v>-0.1452973668699428</v>
       </c>
       <c r="I81">
-        <v>0.5410621157929462</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>0.54106211579294616</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>0</v>
       </c>
@@ -3076,22 +3137,22 @@
         <v>0.3526041993902832</v>
       </c>
       <c r="E82">
-        <v>0.127303797793574</v>
+        <v>0.12730379779357401</v>
       </c>
       <c r="F82">
-        <v>-0.2905630181019742</v>
+        <v>-0.29056301810197421</v>
       </c>
       <c r="G82">
         <v>0.2139432086453904</v>
       </c>
       <c r="H82">
-        <v>0.05671543288741461</v>
+        <v>5.671543288741461E-2</v>
       </c>
       <c r="I82">
-        <v>0.8122704092437502</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>0.81227040924375016</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>0</v>
       </c>
@@ -3102,25 +3163,25 @@
         <v>155</v>
       </c>
       <c r="D83">
-        <v>-0.05814219882191007</v>
+        <v>-5.8142198821910067E-2</v>
       </c>
       <c r="E83">
-        <v>0.8076314334866498</v>
+        <v>0.80763143348664979</v>
       </c>
       <c r="F83">
-        <v>0.2000669080697791</v>
+        <v>0.20006690806977909</v>
       </c>
       <c r="G83">
         <v>0.3977118600882672</v>
       </c>
       <c r="H83">
-        <v>-0.1546914922118768</v>
+        <v>-0.15469149221187681</v>
       </c>
       <c r="I83">
-        <v>0.5149208724255023</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>0.51492087242550233</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>0</v>
       </c>
@@ -3134,22 +3195,22 @@
         <v>-0.22900098153491</v>
       </c>
       <c r="E84">
-        <v>0.3314640900339638</v>
+        <v>0.33146409003396382</v>
       </c>
       <c r="F84">
-        <v>0.01886080722540339</v>
+        <v>1.8860807225403391E-2</v>
       </c>
       <c r="G84">
-        <v>0.9370934382777315</v>
+        <v>0.93709343827773151</v>
       </c>
       <c r="H84">
-        <v>0.01055677363056423</v>
+        <v>1.055677363056423E-2</v>
       </c>
       <c r="I84">
-        <v>0.9647669945768405</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>0.96476699457684045</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>0</v>
       </c>
@@ -3160,25 +3221,25 @@
         <v>166</v>
       </c>
       <c r="D85">
-        <v>0.06586504421289884</v>
+        <v>6.5865044212898835E-2</v>
       </c>
       <c r="E85">
-        <v>0.7826322539939272</v>
+        <v>0.78263225399392722</v>
       </c>
       <c r="F85">
-        <v>-0.01889194856285541</v>
+        <v>-1.889194856285541E-2</v>
       </c>
       <c r="G85">
-        <v>0.9369897698282365</v>
+        <v>0.93698976982823645</v>
       </c>
       <c r="H85">
-        <v>0.01518482462474733</v>
+        <v>1.518482462474733E-2</v>
       </c>
       <c r="I85">
-        <v>0.9493370671093254</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>0.94933706710932542</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>0</v>
       </c>
@@ -3189,25 +3250,25 @@
         <v>179</v>
       </c>
       <c r="D86">
-        <v>-0.3880576721967486</v>
+        <v>-0.38805767219674858</v>
       </c>
       <c r="E86">
-        <v>0.09089345765587147</v>
+        <v>9.0893457655871465E-2</v>
       </c>
       <c r="F86">
-        <v>0.3416254251042991</v>
+        <v>0.34162542510429911</v>
       </c>
       <c r="G86">
-        <v>0.1404278886439113</v>
+        <v>0.14042788864391131</v>
       </c>
       <c r="H86">
-        <v>-0.0697347687074466</v>
+        <v>-6.9734768707446604E-2</v>
       </c>
       <c r="I86">
-        <v>0.7701809259478971</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>0.77018092594789711</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>0</v>
       </c>
@@ -3221,22 +3282,22 @@
         <v>-0.2308309371239298</v>
       </c>
       <c r="E87">
-        <v>0.3275077250984557</v>
+        <v>0.32750772509845572</v>
       </c>
       <c r="F87">
-        <v>0.02566721095868861</v>
+        <v>2.566721095868861E-2</v>
       </c>
       <c r="G87">
         <v>0.9144611065128353</v>
       </c>
       <c r="H87">
-        <v>0.03996529881205568</v>
+        <v>3.9965298812055683E-2</v>
       </c>
       <c r="I87">
-        <v>0.867143412796426</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>0.86714341279642604</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>0</v>
       </c>
@@ -3247,25 +3308,25 @@
         <v>182</v>
       </c>
       <c r="D88">
-        <v>-0.7767501604253098</v>
+        <v>-0.77675016042530975</v>
       </c>
       <c r="E88">
-        <v>5.628627205836592E-05</v>
+        <v>5.6286272058365917E-5</v>
       </c>
       <c r="F88">
-        <v>0.4239709092922372</v>
+        <v>0.42397090929223719</v>
       </c>
       <c r="G88">
-        <v>0.06246751243808655</v>
+        <v>6.2467512438086549E-2</v>
       </c>
       <c r="H88">
-        <v>-0.07810707203143583</v>
+        <v>-7.8107072031435826E-2</v>
       </c>
       <c r="I88">
-        <v>0.7434301326971128</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>0.74343013269711278</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>0</v>
       </c>
@@ -3276,25 +3337,25 @@
         <v>157</v>
       </c>
       <c r="D89">
-        <v>-0.3232670130176244</v>
+        <v>-0.32326701301762439</v>
       </c>
       <c r="E89">
-        <v>0.1644466903572898</v>
+        <v>0.16444669035728979</v>
       </c>
       <c r="F89">
         <v>-0.1374742737412819</v>
       </c>
       <c r="G89">
-        <v>0.563282796300337</v>
+        <v>0.56328279630033695</v>
       </c>
       <c r="H89">
-        <v>-0.07496832980953826</v>
+        <v>-7.4968329809538256E-2</v>
       </c>
       <c r="I89">
-        <v>0.7534275509633881</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>0.75342755096338809</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>0</v>
       </c>
@@ -3308,22 +3369,22 @@
         <v>0.1307514231690024</v>
       </c>
       <c r="E90">
-        <v>0.5826930680596994</v>
+        <v>0.58269306805969945</v>
       </c>
       <c r="F90">
-        <v>0.1529712956739872</v>
+        <v>0.15297129567398721</v>
       </c>
       <c r="G90">
-        <v>0.5196624089956171</v>
+        <v>0.51966240899561711</v>
       </c>
       <c r="H90">
-        <v>0.2659622155829791</v>
+        <v>0.26596221558297911</v>
       </c>
       <c r="I90">
-        <v>0.2570478772501913</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>0.25704787725019129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>0</v>
       </c>
@@ -3334,25 +3395,25 @@
         <v>157</v>
       </c>
       <c r="D91">
-        <v>0.1984015610782001</v>
+        <v>0.19840156107820009</v>
       </c>
       <c r="E91">
-        <v>0.4017328042961489</v>
+        <v>0.40173280429614888</v>
       </c>
       <c r="F91">
-        <v>-0.08783211714141805</v>
+        <v>-8.7832117141418045E-2</v>
       </c>
       <c r="G91">
-        <v>0.71271062449595</v>
+        <v>0.71271062449595002</v>
       </c>
       <c r="H91">
-        <v>0.0313996488085876</v>
+        <v>3.1399648808587602E-2</v>
       </c>
       <c r="I91">
-        <v>0.8954482374492811</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>0.89544823744928115</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>0</v>
       </c>
@@ -3363,25 +3424,25 @@
         <v>184</v>
       </c>
       <c r="D92">
-        <v>-0.2761101717523459</v>
+        <v>-0.27611017175234592</v>
       </c>
       <c r="E92">
-        <v>0.2386469069066434</v>
+        <v>0.23864690690664339</v>
       </c>
       <c r="F92">
-        <v>0.3258129076221751</v>
+        <v>0.32581290762217507</v>
       </c>
       <c r="G92">
-        <v>0.160957640876103</v>
+        <v>0.16095764087610301</v>
       </c>
       <c r="H92">
-        <v>-0.07654596197950736</v>
+        <v>-7.654596197950736E-2</v>
       </c>
       <c r="I92">
-        <v>0.7483976972573045</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>0.74839769725730454</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>0</v>
       </c>
@@ -3392,25 +3453,25 @@
         <v>155</v>
       </c>
       <c r="D93">
-        <v>-0.236560611691939</v>
+        <v>-0.23656061169193901</v>
       </c>
       <c r="E93">
-        <v>0.3153023831480183</v>
+        <v>0.31530238314801828</v>
       </c>
       <c r="F93">
-        <v>0.05778105182769896</v>
+        <v>5.7781051827698958E-2</v>
       </c>
       <c r="G93">
-        <v>0.808805086135067</v>
+        <v>0.80880508613506696</v>
       </c>
       <c r="H93">
-        <v>0.1007952369657956</v>
+        <v>0.10079523696579561</v>
       </c>
       <c r="I93">
-        <v>0.6724230385380282</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>0.67242303853802821</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>0</v>
       </c>
@@ -3421,7 +3482,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>0</v>
       </c>
@@ -3435,22 +3496,22 @@
         <v>-0.4955060973769484</v>
       </c>
       <c r="E95">
-        <v>0.02630792395879233</v>
+        <v>2.6307923958792331E-2</v>
       </c>
       <c r="F95">
         <v>0.1333690936673948</v>
       </c>
       <c r="G95">
-        <v>0.5751014569843902</v>
+        <v>0.57510145698439019</v>
       </c>
       <c r="H95">
-        <v>-0.0197830199167382</v>
+        <v>-1.9783019916738202E-2</v>
       </c>
       <c r="I95">
-        <v>0.934023843539602</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>0.93402384353960199</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>0</v>
       </c>
@@ -3464,22 +3525,22 @@
         <v>-0.1489354531760391</v>
       </c>
       <c r="E96">
-        <v>0.5308669136924012</v>
+        <v>0.53086691369240124</v>
       </c>
       <c r="F96">
-        <v>0.08729232919579481</v>
+        <v>8.7292329195794813E-2</v>
       </c>
       <c r="G96">
-        <v>0.7144050778412815</v>
+        <v>0.71440507784128149</v>
       </c>
       <c r="H96">
-        <v>-0.2381642011980546</v>
+        <v>-0.23816420119805459</v>
       </c>
       <c r="I96">
-        <v>0.3119360148525809</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>0.31193601485258088</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>0</v>
       </c>
@@ -3490,25 +3551,25 @@
         <v>153</v>
       </c>
       <c r="D97">
-        <v>-0.2148914998481405</v>
+        <v>-0.21489149984814049</v>
       </c>
       <c r="E97">
-        <v>0.3629079307570788</v>
+        <v>0.36290793075707878</v>
       </c>
       <c r="F97">
-        <v>-0.06337643894598466</v>
+        <v>-6.3376438945984659E-2</v>
       </c>
       <c r="G97">
-        <v>0.7906668330215946</v>
+        <v>0.79066683302159457</v>
       </c>
       <c r="H97">
-        <v>-0.401520299749752</v>
+        <v>-0.40152029974975201</v>
       </c>
       <c r="I97">
-        <v>0.07930305498473245</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>7.9303054984732446E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>0</v>
       </c>
@@ -3519,7 +3580,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>0</v>
       </c>
@@ -3530,7 +3591,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>0</v>
       </c>
@@ -3541,25 +3602,25 @@
         <v>185</v>
       </c>
       <c r="D100">
-        <v>-0.3903059964170512</v>
+        <v>-0.39030599641705122</v>
       </c>
       <c r="E100">
-        <v>0.08887612563236738</v>
+        <v>8.8876125632367381E-2</v>
       </c>
       <c r="F100">
-        <v>-0.03031066904019499</v>
+        <v>-3.0310669040194992E-2</v>
       </c>
       <c r="G100">
-        <v>0.8990561641493366</v>
+        <v>0.89905616414933665</v>
       </c>
       <c r="H100">
-        <v>-0.2925633258919358</v>
+        <v>-0.29256332589193579</v>
       </c>
       <c r="I100">
-        <v>0.2106624143069148</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>0.21066241430691479</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>0</v>
       </c>
@@ -3570,7 +3631,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>0</v>
       </c>
@@ -3584,22 +3645,22 @@
         <v>0.6462534068495891</v>
       </c>
       <c r="E102">
-        <v>0.00207980667187256</v>
+        <v>2.0798066718725602E-3</v>
       </c>
       <c r="F102">
-        <v>-0.4113332789770844</v>
+        <v>-0.41133327897708438</v>
       </c>
       <c r="G102">
-        <v>0.07157377743477483</v>
+        <v>7.1573777434774832E-2</v>
       </c>
       <c r="H102">
-        <v>-0.1007075323684734</v>
+        <v>-0.10070753236847339</v>
       </c>
       <c r="I102">
-        <v>0.6726928883006115</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>0.67269288830061147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>0</v>
       </c>
@@ -3610,25 +3671,25 @@
         <v>165</v>
       </c>
       <c r="D103">
-        <v>-0.0605338044311334</v>
+        <v>-6.0533804431133403E-2</v>
       </c>
       <c r="E103">
-        <v>0.7998693066944096</v>
+        <v>0.79986930669440959</v>
       </c>
       <c r="F103">
-        <v>0.2443600327112291</v>
+        <v>0.24436003271122911</v>
       </c>
       <c r="G103">
-        <v>0.2991337236057626</v>
+        <v>0.29913372360576262</v>
       </c>
       <c r="H103">
-        <v>0.09586791573374992</v>
+        <v>9.586791573374992E-2</v>
       </c>
       <c r="I103">
-        <v>0.6876423473829019</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>0.68764234738290186</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>0</v>
       </c>
@@ -3639,10 +3700,10 @@
         <v>153</v>
       </c>
       <c r="D104">
-        <v>-0.140688547994495</v>
+        <v>-0.14068854799449501</v>
       </c>
       <c r="E104">
-        <v>0.5541044792097041</v>
+        <v>0.55410447920970407</v>
       </c>
       <c r="F104">
         <v>-0.3107377733275033</v>
@@ -3651,13 +3712,13 @@
         <v>0.1823753043772999</v>
       </c>
       <c r="H104">
-        <v>-0.2355715515822034</v>
+        <v>-0.23557155158220339</v>
       </c>
       <c r="I104">
         <v>0.3173895156926087</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>0</v>
       </c>
@@ -3671,22 +3732,22 @@
         <v>-0.1032843080209872</v>
       </c>
       <c r="E105">
-        <v>0.6647808412603262</v>
+        <v>0.66478084126032622</v>
       </c>
       <c r="F105">
-        <v>0.04310706408473865</v>
+        <v>4.3107064084738647E-2</v>
       </c>
       <c r="G105">
-        <v>0.8567986829195913</v>
+        <v>0.85679868291959127</v>
       </c>
       <c r="H105">
-        <v>-0.04284692126946289</v>
+        <v>-4.2846921269462893E-2</v>
       </c>
       <c r="I105">
-        <v>0.8576544118393047</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>0.85765441183930469</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>0</v>
       </c>
@@ -3697,7 +3758,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>0</v>
       </c>
@@ -3708,25 +3769,25 @@
         <v>153</v>
       </c>
       <c r="D107">
-        <v>-0.2975316456386912</v>
+        <v>-0.29753164563869122</v>
       </c>
       <c r="E107">
-        <v>0.2026580996531001</v>
+        <v>0.20265809965310011</v>
       </c>
       <c r="F107">
-        <v>-0.0313900670508659</v>
+        <v>-3.1390067050865902E-2</v>
       </c>
       <c r="G107">
-        <v>0.8954799745010434</v>
+        <v>0.89547997450104344</v>
       </c>
       <c r="H107">
         <v>0.2151748466862925</v>
       </c>
       <c r="I107">
-        <v>0.3622602195497484</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>0.36226021954974841</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>0</v>
       </c>
@@ -3737,7 +3798,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>0</v>
       </c>
@@ -3748,7 +3809,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>0</v>
       </c>
@@ -3759,25 +3820,25 @@
         <v>186</v>
       </c>
       <c r="D110">
-        <v>-0.392923268309377</v>
+        <v>-0.39292326830937702</v>
       </c>
       <c r="E110">
-        <v>0.08656947430707086</v>
+        <v>8.6569474307070862E-2</v>
       </c>
       <c r="F110">
-        <v>0.1012821393309778</v>
+        <v>0.10128213933097779</v>
       </c>
       <c r="G110">
-        <v>0.670925637910341</v>
+        <v>0.67092563791034099</v>
       </c>
       <c r="H110">
         <v>-0.2176929245921502</v>
       </c>
       <c r="I110">
-        <v>0.3565331910041505</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>0.35653319100415048</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>0</v>
       </c>
@@ -3788,25 +3849,25 @@
         <v>187</v>
       </c>
       <c r="D111">
-        <v>-0.00697974328583327</v>
+        <v>-6.9797432858332703E-3</v>
       </c>
       <c r="E111">
-        <v>0.9767013600739984</v>
+        <v>0.97670136007399844</v>
       </c>
       <c r="F111">
-        <v>-0.3298636464183057</v>
+        <v>-0.32986364641830568</v>
       </c>
       <c r="G111">
         <v>0.1555121489669565</v>
       </c>
       <c r="H111">
-        <v>-0.1922879741029916</v>
+        <v>-0.19228797410299159</v>
       </c>
       <c r="I111">
-        <v>0.4166835490585449</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>0.41668354905854488</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>0</v>
       </c>
@@ -3817,25 +3878,25 @@
         <v>165</v>
       </c>
       <c r="D112">
-        <v>-0.135267466709579</v>
+        <v>-0.13526746670957901</v>
       </c>
       <c r="E112">
-        <v>0.5696228048058514</v>
+        <v>0.56962280480585137</v>
       </c>
       <c r="F112">
-        <v>0.250903766377705</v>
+        <v>0.25090376637770501</v>
       </c>
       <c r="G112">
-        <v>0.2859661190272939</v>
+        <v>0.28596611902729391</v>
       </c>
       <c r="H112">
         <v>0.2649157177507338</v>
       </c>
       <c r="I112">
-        <v>0.2589952030193592</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>0.25899520301935919</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>0</v>
       </c>
@@ -3846,7 +3907,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>0</v>
       </c>
@@ -3857,7 +3918,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>0</v>
       </c>
@@ -3868,7 +3929,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>0</v>
       </c>
@@ -3879,7 +3940,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>0</v>
       </c>
@@ -3890,25 +3951,25 @@
         <v>189</v>
       </c>
       <c r="D117">
-        <v>-0.0295837653956991</v>
+        <v>-2.95837653956991E-2</v>
       </c>
       <c r="E117">
         <v>0.9014655530642034</v>
       </c>
       <c r="F117">
-        <v>0.218360150867898</v>
+        <v>0.21836015086789801</v>
       </c>
       <c r="G117">
-        <v>0.3550244636654125</v>
+        <v>0.35502446366541252</v>
       </c>
       <c r="H117">
         <v>0.3914629296978433</v>
       </c>
       <c r="I117">
-        <v>0.08785098743696322</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>8.7850987436963221E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>0</v>
       </c>
@@ -3922,22 +3983,22 @@
         <v>-0.6031299917805979</v>
       </c>
       <c r="E118">
-        <v>0.004875624094466611</v>
+        <v>4.875624094466611E-3</v>
       </c>
       <c r="F118">
-        <v>0.55587438491135</v>
+        <v>0.55587438491134999</v>
       </c>
       <c r="G118">
-        <v>0.01093110325373142</v>
+        <v>1.0931103253731421E-2</v>
       </c>
       <c r="H118">
-        <v>-0.2000071106840099</v>
+        <v>-0.20000711068400989</v>
       </c>
       <c r="I118">
-        <v>0.3978558546258354</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>0.39785585462583539</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>0</v>
       </c>
@@ -3948,7 +4009,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>0</v>
       </c>
@@ -3962,22 +4023,22 @@
         <v>-0.1191690644971236</v>
       </c>
       <c r="E120">
-        <v>0.616783580664171</v>
+        <v>0.61678358066417105</v>
       </c>
       <c r="F120">
         <v>-0.2342033403784714</v>
       </c>
       <c r="G120">
-        <v>0.3202903451933947</v>
+        <v>0.32029034519339472</v>
       </c>
       <c r="H120">
-        <v>-0.2813210360180313</v>
+        <v>-0.28132103601803132</v>
       </c>
       <c r="I120">
-        <v>0.2295372328188784</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>0.22953723281887839</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>0</v>
       </c>
@@ -3991,22 +4052,22 @@
         <v>-0.3371437189403344</v>
       </c>
       <c r="E121">
-        <v>0.1460490798094015</v>
+        <v>0.14604907980940149</v>
       </c>
       <c r="F121">
-        <v>0.3165701733383937</v>
+        <v>0.31657017333839371</v>
       </c>
       <c r="G121">
-        <v>0.1738718876455375</v>
+        <v>0.17387188764553749</v>
       </c>
       <c r="H121">
         <v>-0.2453904809944274</v>
       </c>
       <c r="I121">
-        <v>0.2970360882682248</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>0.29703608826822481</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>0</v>
       </c>
@@ -4020,10 +4081,10 @@
         <v>0.2237713310842166</v>
       </c>
       <c r="E122">
-        <v>0.3429252861251408</v>
+        <v>0.34292528612514078</v>
       </c>
       <c r="F122">
-        <v>-0.2578775595668604</v>
+        <v>-0.25787755956686043</v>
       </c>
       <c r="G122">
         <v>0.2723338127449369</v>
@@ -4032,10 +4093,10 @@
         <v>0.4195069086127779</v>
       </c>
       <c r="I122">
-        <v>0.06557805815788878</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>6.557805815788878E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>0</v>
       </c>
@@ -4046,25 +4107,25 @@
         <v>156</v>
       </c>
       <c r="D123">
-        <v>0.3112503211938543</v>
+        <v>0.31125032119385432</v>
       </c>
       <c r="E123">
         <v>0.1816169511140838</v>
       </c>
       <c r="F123">
-        <v>0.03756389488430229</v>
+        <v>3.7563894884302292E-2</v>
       </c>
       <c r="G123">
-        <v>0.8750645274070719</v>
+        <v>0.87506452740707186</v>
       </c>
       <c r="H123">
-        <v>0.03710558748343013</v>
+        <v>3.7105587483430132E-2</v>
       </c>
       <c r="I123">
-        <v>0.8765775942865833</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>0.87657759428658333</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>0</v>
       </c>
@@ -4075,10 +4136,10 @@
         <v>192</v>
       </c>
       <c r="D124">
-        <v>-0.503409635703866</v>
+        <v>-0.50340963570386599</v>
       </c>
       <c r="E124">
-        <v>0.02365052733397701</v>
+        <v>2.365052733397701E-2</v>
       </c>
       <c r="F124">
         <v>0.376264973301149</v>
@@ -4087,13 +4148,13 @@
         <v>0.1020286340749671</v>
       </c>
       <c r="H124">
-        <v>-0.1406719623552385</v>
+        <v>-0.14067196235523849</v>
       </c>
       <c r="I124">
-        <v>0.5541516669816708</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>0.55415166698167084</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>0</v>
       </c>
@@ -4107,22 +4168,22 @@
         <v>-0.2212648183738343</v>
       </c>
       <c r="E125">
-        <v>0.3484994746492149</v>
+        <v>0.34849947464921488</v>
       </c>
       <c r="F125">
-        <v>-0.005438287249007952</v>
+        <v>-5.4382872490079523E-3</v>
       </c>
       <c r="G125">
-        <v>0.9818458704498533</v>
+        <v>0.98184587044985328</v>
       </c>
       <c r="H125">
-        <v>-0.3789093020749039</v>
+        <v>-0.37890930207490392</v>
       </c>
       <c r="I125">
-        <v>0.09944965850455774</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>9.9449658504557739E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>0</v>
       </c>
@@ -4133,25 +4194,25 @@
         <v>182</v>
       </c>
       <c r="D126">
-        <v>-0.3038689308352336</v>
+        <v>-0.30386893083523359</v>
       </c>
       <c r="E126">
-        <v>0.192745661674853</v>
+        <v>0.19274566167485299</v>
       </c>
       <c r="F126">
-        <v>-0.04769383936704345</v>
+        <v>-4.7693839367043453E-2</v>
       </c>
       <c r="G126">
-        <v>0.8417367628925577</v>
+        <v>0.84173676289255772</v>
       </c>
       <c r="H126">
         <v>0.1360614567211717</v>
       </c>
       <c r="I126">
-        <v>0.5673381442470674</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>0.56733814424706741</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>0</v>
       </c>
@@ -4162,25 +4223,25 @@
         <v>194</v>
       </c>
       <c r="D127">
-        <v>-0.0250037748605948</v>
+        <v>-2.50037748605948E-2</v>
       </c>
       <c r="E127">
-        <v>0.9166646196740181</v>
+        <v>0.91666461967401813</v>
       </c>
       <c r="F127">
-        <v>-0.2764623286587601</v>
+        <v>-0.27646232865876008</v>
       </c>
       <c r="G127">
-        <v>0.238024028796867</v>
+        <v>0.23802402879686699</v>
       </c>
       <c r="H127">
-        <v>-0.07346609004819396</v>
+        <v>-7.346609004819396E-2</v>
       </c>
       <c r="I127">
-        <v>0.758225944425636</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>0.75822594442563596</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>0</v>
       </c>
@@ -4197,19 +4258,19 @@
         <v>0.4551710757748656</v>
       </c>
       <c r="F128">
-        <v>-0.2578857005946844</v>
+        <v>-0.25788570059468441</v>
       </c>
       <c r="G128">
-        <v>0.2723181405281357</v>
+        <v>0.27231814052813569</v>
       </c>
       <c r="H128">
-        <v>0.2033918326070216</v>
+        <v>0.20339183260702159</v>
       </c>
       <c r="I128">
-        <v>0.3897505858165118</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>0.38975058581651179</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>0</v>
       </c>
@@ -4220,25 +4281,25 @@
         <v>165</v>
       </c>
       <c r="D129">
-        <v>0.7252125174252698</v>
+        <v>0.72521251742526982</v>
       </c>
       <c r="E129">
-        <v>0.0002968030122865957</v>
+        <v>2.9680301228659567E-4</v>
       </c>
       <c r="F129">
-        <v>-0.7931435798916244</v>
+        <v>-0.79314357989162443</v>
       </c>
       <c r="G129">
-        <v>3.022946773893216E-05</v>
+        <v>3.0229467738932159E-5</v>
       </c>
       <c r="H129">
-        <v>0.1473963645765609</v>
+        <v>0.14739636457656091</v>
       </c>
       <c r="I129">
-        <v>0.5351690879295808</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>0.53516908792958084</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>0</v>
       </c>
@@ -4249,7 +4310,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>0</v>
       </c>
@@ -4260,25 +4321,25 @@
         <v>165</v>
       </c>
       <c r="D131">
-        <v>0.09078077153412516</v>
+        <v>9.0780771534125157E-2</v>
       </c>
       <c r="E131">
-        <v>0.7034775179153578</v>
+        <v>0.70347751791535784</v>
       </c>
       <c r="F131">
-        <v>0.08648276650109012</v>
+        <v>8.6482766501090116E-2</v>
       </c>
       <c r="G131">
-        <v>0.7169487953671769</v>
+        <v>0.71694879536717693</v>
       </c>
       <c r="H131">
-        <v>0.3499282191926263</v>
+        <v>0.34992821919262629</v>
       </c>
       <c r="I131">
         <v>0.1304190428752493</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>0</v>
       </c>
@@ -4289,13 +4350,13 @@
         <v>167</v>
       </c>
       <c r="D132">
-        <v>-0.3640267454621599</v>
+        <v>-0.36402674546215991</v>
       </c>
       <c r="E132">
         <v>0.1145999813935266</v>
       </c>
       <c r="F132">
-        <v>0.04353492809697773</v>
+        <v>4.3534928096977732E-2</v>
       </c>
       <c r="G132">
         <v>0.8553915770799625</v>
@@ -4307,7 +4368,7 @@
         <v>0.6115890861297737</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>0</v>
       </c>
@@ -4318,25 +4379,25 @@
         <v>180</v>
       </c>
       <c r="D133">
-        <v>-0.6928267963449428</v>
+        <v>-0.69282679634494282</v>
       </c>
       <c r="E133">
-        <v>0.0007086696774101488</v>
+        <v>7.086696774101488E-4</v>
       </c>
       <c r="F133">
-        <v>0.374438126153449</v>
+        <v>0.37443812615344901</v>
       </c>
       <c r="G133">
         <v>0.1038384996126903</v>
       </c>
       <c r="H133">
-        <v>-0.110904156467301</v>
+        <v>-0.11090415646730099</v>
       </c>
       <c r="I133">
-        <v>0.6415854683046657</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>0.64158546830466567</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>0</v>
       </c>
@@ -4347,25 +4408,25 @@
         <v>196</v>
       </c>
       <c r="D134">
-        <v>0.3593842236109432</v>
+        <v>0.35938422361094319</v>
       </c>
       <c r="E134">
         <v>0.119648266100366</v>
       </c>
       <c r="F134">
-        <v>-0.03962358151319106</v>
+        <v>-3.9623581513191057E-2</v>
       </c>
       <c r="G134">
-        <v>0.8682698529603975</v>
+        <v>0.86826985296039749</v>
       </c>
       <c r="H134">
-        <v>-0.1009099486221414</v>
+        <v>-0.10090994862214139</v>
       </c>
       <c r="I134">
-        <v>0.6720701515764901</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>0.67207015157649008</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>0</v>
       </c>
@@ -4376,25 +4437,25 @@
         <v>156</v>
       </c>
       <c r="D135">
-        <v>0.01228807771637309</v>
+        <v>1.2288077716373091E-2</v>
       </c>
       <c r="E135">
-        <v>0.9589931287147475</v>
+        <v>0.95899312871474751</v>
       </c>
       <c r="F135">
         <v>0.1147999959027442</v>
       </c>
       <c r="G135">
-        <v>0.6298469633674513</v>
+        <v>0.62984696336745127</v>
       </c>
       <c r="H135">
-        <v>0.06355739654402354</v>
+        <v>6.3557396544023537E-2</v>
       </c>
       <c r="I135">
-        <v>0.7900819066369364</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>0.79008190663693645</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>0</v>
       </c>
@@ -4405,25 +4466,25 @@
         <v>183</v>
       </c>
       <c r="D136">
-        <v>-0.2918315629138205</v>
+        <v>-0.29183156291382051</v>
       </c>
       <c r="E136">
-        <v>0.2118587307073601</v>
+        <v>0.21185873070736011</v>
       </c>
       <c r="F136">
-        <v>0.3447150616246724</v>
+        <v>0.34471506162467241</v>
       </c>
       <c r="G136">
-        <v>0.1366423411359712</v>
+        <v>0.13664234113597121</v>
       </c>
       <c r="H136">
-        <v>-0.2780160440470196</v>
+        <v>-0.27801604404701957</v>
       </c>
       <c r="I136">
         <v>0.2352884212652164</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>0</v>
       </c>
@@ -4434,25 +4495,25 @@
         <v>175</v>
       </c>
       <c r="D137">
-        <v>0.393796691281129</v>
+        <v>0.39379669128112899</v>
       </c>
       <c r="E137">
-        <v>0.08580962464285355</v>
+        <v>8.5809624642853549E-2</v>
       </c>
       <c r="F137">
-        <v>-0.2590624123656038</v>
+        <v>-0.25906241236560379</v>
       </c>
       <c r="G137">
-        <v>0.2700587954188137</v>
+        <v>0.27005879541881372</v>
       </c>
       <c r="H137">
-        <v>0.4628785912672128</v>
+        <v>0.46287859126721281</v>
       </c>
       <c r="I137">
-        <v>0.03986026656320919</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>3.9860266563209193E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>0</v>
       </c>
@@ -4463,7 +4524,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>0</v>
       </c>
@@ -4474,7 +4535,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>0</v>
       </c>
@@ -4485,25 +4546,25 @@
         <v>154</v>
       </c>
       <c r="D140">
-        <v>0.399562012201428</v>
+        <v>0.39956201220142801</v>
       </c>
       <c r="E140">
-        <v>0.08091692366709981</v>
+        <v>8.0916923667099808E-2</v>
       </c>
       <c r="F140">
-        <v>-0.5838933490251738</v>
+        <v>-0.58389334902517376</v>
       </c>
       <c r="G140">
-        <v>0.006870867902264001</v>
+        <v>6.8708679022640006E-3</v>
       </c>
       <c r="H140">
-        <v>-0.02399800009550185</v>
+        <v>-2.3998000095501851E-2</v>
       </c>
       <c r="I140">
-        <v>0.9200062755378051</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>0.92000627553780512</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>0</v>
       </c>
@@ -4514,25 +4575,25 @@
         <v>156</v>
       </c>
       <c r="D141">
-        <v>0.05141990936140843</v>
+        <v>5.1419909361408431E-2</v>
       </c>
       <c r="E141">
-        <v>0.8295398043730213</v>
+        <v>0.82953980437302133</v>
       </c>
       <c r="F141">
         <v>0.1411729539730239</v>
       </c>
       <c r="G141">
-        <v>0.5527270900676747</v>
+        <v>0.55272709006767473</v>
       </c>
       <c r="H141">
-        <v>-0.1483997660697317</v>
+        <v>-0.14839976606973171</v>
       </c>
       <c r="I141">
-        <v>0.5323624843279932</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>0.53236248432799316</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>0</v>
       </c>
@@ -4543,7 +4604,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>0</v>
       </c>
@@ -4554,25 +4615,25 @@
         <v>154</v>
       </c>
       <c r="D143">
-        <v>-0.04573848892879325</v>
+        <v>-4.5738488928793251E-2</v>
       </c>
       <c r="E143">
-        <v>0.8481515218972571</v>
+        <v>0.84815152189725707</v>
       </c>
       <c r="F143">
-        <v>-0.1900953224626726</v>
+        <v>-0.19009532246267261</v>
       </c>
       <c r="G143">
-        <v>0.4221177367434945</v>
+        <v>0.42211773674349451</v>
       </c>
       <c r="H143">
-        <v>0.2161439224681982</v>
+        <v>0.21614392246819819</v>
       </c>
       <c r="I143">
-        <v>0.360049986436996</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>0.36004998643699598</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>0</v>
       </c>
@@ -4583,25 +4644,25 @@
         <v>166</v>
       </c>
       <c r="D144">
-        <v>-0.240850374826821</v>
+        <v>-0.24085037482682101</v>
       </c>
       <c r="E144">
-        <v>0.3063457237998946</v>
+        <v>0.30634572379989461</v>
       </c>
       <c r="F144">
         <v>0.234860274252327</v>
       </c>
       <c r="G144">
-        <v>0.318895568651507</v>
+        <v>0.31889556865150698</v>
       </c>
       <c r="H144">
-        <v>-0.03298019520945056</v>
+        <v>-3.2980195209450558E-2</v>
       </c>
       <c r="I144">
-        <v>0.8902152208628378</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
+        <v>0.89021522086283777</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>0</v>
       </c>

--- a/migratoryDataNightly.xlsx
+++ b/migratoryDataNightly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\subze\Downloads\python testing\GEOBIRDMGRTY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/Documents/sci re v2/GEOBIRDMGRTY/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A787CB-ED30-42B1-8AF2-5D978CA1297D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8649815B-B6E4-E34A-BA14-3AC99BD2D274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="2445" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -634,12 +634,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -669,16 +675,360 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1014,48 +1364,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
-    <col min="8" max="9" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
+    <col min="8" max="9" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1084,7 +1434,7 @@
         <v>0.4842012627686727</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1113,7 +1463,7 @@
         <v>0.41290707344285837</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -1142,7 +1492,7 @@
         <v>0.53346607362210052</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -1171,7 +1521,7 @@
         <v>0.56086031976797668</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -1181,8 +1531,14 @@
       <c r="C6" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -1211,7 +1567,7 @@
         <v>0.47604651879097459</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -1240,7 +1596,7 @@
         <v>6.7861587063418646E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -1269,7 +1625,7 @@
         <v>0.34191451484826429</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -1298,7 +1654,7 @@
         <v>0.99768347842118432</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -1327,7 +1683,7 @@
         <v>0.61121451260091619</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -1356,7 +1712,7 @@
         <v>0.15640624095574601</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -1385,7 +1741,7 @@
         <v>0.65916413875795066</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -1396,7 +1752,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -1425,7 +1781,7 @@
         <v>0.68629532392534476</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -1454,7 +1810,7 @@
         <v>0.29243352070267159</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -1483,7 +1839,7 @@
         <v>0.52738575587640524</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -1512,7 +1868,7 @@
         <v>0.72855710693247433</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -1541,7 +1897,7 @@
         <v>0.61698802234856931</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -1570,7 +1926,7 @@
         <v>0.96476699457684045</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -1599,7 +1955,7 @@
         <v>0.33792059915666711</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -1628,7 +1984,7 @@
         <v>0.99375224264094886</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -1657,7 +2013,7 @@
         <v>0.8612708438395289</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -1686,7 +2042,7 @@
         <v>0.85435898855528081</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -1715,7 +2071,7 @@
         <v>0.11480864861974049</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -1744,7 +2100,7 @@
         <v>0.1774897460831508</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -1773,7 +2129,7 @@
         <v>0.47597134858675522</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -1802,7 +2158,7 @@
         <v>0.86497215269110017</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -1831,7 +2187,7 @@
         <v>0.43063970648382</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -1842,7 +2198,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>0</v>
       </c>
@@ -1871,7 +2227,7 @@
         <v>0.95077889696707385</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -1900,7 +2256,7 @@
         <v>0.5249325765925793</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>0</v>
       </c>
@@ -1929,7 +2285,7 @@
         <v>0.76214840059377376</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>0</v>
       </c>
@@ -1958,7 +2314,7 @@
         <v>0.34594288150596431</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -1987,7 +2343,7 @@
         <v>0.50014951108138406</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -2016,7 +2372,7 @@
         <v>0.92184727602588457</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>0</v>
       </c>
@@ -2027,7 +2383,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -2056,7 +2412,7 @@
         <v>0.38612659329485849</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>0</v>
       </c>
@@ -2085,7 +2441,7 @@
         <v>0.8094247243253917</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>0</v>
       </c>
@@ -2114,7 +2470,7 @@
         <v>0.9347195599933148</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>0</v>
       </c>
@@ -2125,7 +2481,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>0</v>
       </c>
@@ -2136,7 +2492,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>0</v>
       </c>
@@ -2165,7 +2521,7 @@
         <v>0.86770756798630466</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>0</v>
       </c>
@@ -2194,7 +2550,7 @@
         <v>8.7336173966983802E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>0</v>
       </c>
@@ -2223,7 +2579,7 @@
         <v>0.14946802224672931</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>0</v>
       </c>
@@ -2252,7 +2608,7 @@
         <v>0.77542300793919683</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>0</v>
       </c>
@@ -2281,7 +2637,7 @@
         <v>0.60477800491043787</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>0</v>
       </c>
@@ -2292,7 +2648,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>0</v>
       </c>
@@ -2303,7 +2659,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>0</v>
       </c>
@@ -2332,7 +2688,7 @@
         <v>0.76657434067880248</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>0</v>
       </c>
@@ -2361,7 +2717,7 @@
         <v>0.89421508330503818</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>0</v>
       </c>
@@ -2390,7 +2746,7 @@
         <v>0.24265686179613491</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>0</v>
       </c>
@@ -2419,7 +2775,7 @@
         <v>0.50544896001278128</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>0</v>
       </c>
@@ -2430,7 +2786,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>0</v>
       </c>
@@ -2459,7 +2815,7 @@
         <v>0.41005139764202708</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>0</v>
       </c>
@@ -2488,7 +2844,7 @@
         <v>1.463765883686231E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>0</v>
       </c>
@@ -2517,7 +2873,7 @@
         <v>0.61321615662540963</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>0</v>
       </c>
@@ -2528,7 +2884,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>0</v>
       </c>
@@ -2557,7 +2913,7 @@
         <v>0.8841532066443456</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>0</v>
       </c>
@@ -2586,7 +2942,7 @@
         <v>0.67140212724511905</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>0</v>
       </c>
@@ -2615,7 +2971,7 @@
         <v>0.50843067813116916</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>0</v>
       </c>
@@ -2626,7 +2982,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>0</v>
       </c>
@@ -2637,7 +2993,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>0</v>
       </c>
@@ -2666,7 +3022,7 @@
         <v>0.93013019018607979</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>0</v>
       </c>
@@ -2695,7 +3051,7 @@
         <v>0.36054668673710338</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>0</v>
       </c>
@@ -2724,7 +3080,7 @@
         <v>0.36226021954974841</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>0</v>
       </c>
@@ -2735,7 +3091,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>0</v>
       </c>
@@ -2764,7 +3120,7 @@
         <v>0.88998966189622364</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>0</v>
       </c>
@@ -2793,7 +3149,7 @@
         <v>3.1859256176154989E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>0</v>
       </c>
@@ -2822,7 +3178,7 @@
         <v>0.6115890861297737</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>0</v>
       </c>
@@ -2851,7 +3207,7 @@
         <v>0.79384950547418065</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>0</v>
       </c>
@@ -2880,7 +3236,7 @@
         <v>0.44423094072733421</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>0</v>
       </c>
@@ -2909,7 +3265,7 @@
         <v>0.14861168945764061</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>0</v>
       </c>
@@ -2938,7 +3294,7 @@
         <v>0.340916371710488</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>0</v>
       </c>
@@ -2967,7 +3323,7 @@
         <v>0.14672311922108161</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>0</v>
       </c>
@@ -2996,7 +3352,7 @@
         <v>0.1415927758161474</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>0</v>
       </c>
@@ -3025,7 +3381,7 @@
         <v>0.38737493397034922</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>0</v>
       </c>
@@ -3054,7 +3410,7 @@
         <v>0.39091880631055897</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>0</v>
       </c>
@@ -3065,7 +3421,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>0</v>
       </c>
@@ -3094,7 +3450,7 @@
         <v>0.13496957114122379</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>0</v>
       </c>
@@ -3123,7 +3479,7 @@
         <v>0.54106211579294616</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>0</v>
       </c>
@@ -3152,7 +3508,7 @@
         <v>0.81227040924375016</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>0</v>
       </c>
@@ -3181,7 +3537,7 @@
         <v>0.51492087242550233</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>0</v>
       </c>
@@ -3210,7 +3566,7 @@
         <v>0.96476699457684045</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>0</v>
       </c>
@@ -3239,7 +3595,7 @@
         <v>0.94933706710932542</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>0</v>
       </c>
@@ -3268,7 +3624,7 @@
         <v>0.77018092594789711</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>0</v>
       </c>
@@ -3297,7 +3653,7 @@
         <v>0.86714341279642604</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>0</v>
       </c>
@@ -3326,7 +3682,7 @@
         <v>0.74343013269711278</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>0</v>
       </c>
@@ -3355,7 +3711,7 @@
         <v>0.75342755096338809</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>0</v>
       </c>
@@ -3384,7 +3740,7 @@
         <v>0.25704787725019129</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>0</v>
       </c>
@@ -3413,7 +3769,7 @@
         <v>0.89544823744928115</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>0</v>
       </c>
@@ -3442,7 +3798,7 @@
         <v>0.74839769725730454</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>0</v>
       </c>
@@ -3471,7 +3827,7 @@
         <v>0.67242303853802821</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>0</v>
       </c>
@@ -3482,7 +3838,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>0</v>
       </c>
@@ -3511,7 +3867,7 @@
         <v>0.93402384353960199</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>0</v>
       </c>
@@ -3540,7 +3896,7 @@
         <v>0.31193601485258088</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>0</v>
       </c>
@@ -3569,7 +3925,7 @@
         <v>7.9303054984732446E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>0</v>
       </c>
@@ -3580,7 +3936,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>0</v>
       </c>
@@ -3591,7 +3947,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>0</v>
       </c>
@@ -3620,7 +3976,7 @@
         <v>0.21066241430691479</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>0</v>
       </c>
@@ -3631,7 +3987,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>0</v>
       </c>
@@ -3660,7 +4016,7 @@
         <v>0.67269288830061147</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>0</v>
       </c>
@@ -3689,7 +4045,7 @@
         <v>0.68764234738290186</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>0</v>
       </c>
@@ -3718,7 +4074,7 @@
         <v>0.3173895156926087</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>0</v>
       </c>
@@ -3747,7 +4103,7 @@
         <v>0.85765441183930469</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>0</v>
       </c>
@@ -3758,7 +4114,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>0</v>
       </c>
@@ -3787,7 +4143,7 @@
         <v>0.36226021954974841</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>0</v>
       </c>
@@ -3798,7 +4154,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>0</v>
       </c>
@@ -3809,7 +4165,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>0</v>
       </c>
@@ -3838,7 +4194,7 @@
         <v>0.35653319100415048</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>0</v>
       </c>
@@ -3867,7 +4223,7 @@
         <v>0.41668354905854488</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>0</v>
       </c>
@@ -3896,7 +4252,7 @@
         <v>0.25899520301935919</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>0</v>
       </c>
@@ -3907,7 +4263,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>0</v>
       </c>
@@ -3918,7 +4274,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>0</v>
       </c>
@@ -3929,7 +4285,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>0</v>
       </c>
@@ -3940,7 +4296,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>0</v>
       </c>
@@ -3969,7 +4325,7 @@
         <v>8.7850987436963221E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>0</v>
       </c>
@@ -3998,7 +4354,7 @@
         <v>0.39785585462583539</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>0</v>
       </c>
@@ -4009,7 +4365,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>0</v>
       </c>
@@ -4038,7 +4394,7 @@
         <v>0.22953723281887839</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>0</v>
       </c>
@@ -4067,7 +4423,7 @@
         <v>0.29703608826822481</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>0</v>
       </c>
@@ -4096,7 +4452,7 @@
         <v>6.557805815788878E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>0</v>
       </c>
@@ -4125,7 +4481,7 @@
         <v>0.87657759428658333</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>0</v>
       </c>
@@ -4154,7 +4510,7 @@
         <v>0.55415166698167084</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>0</v>
       </c>
@@ -4183,7 +4539,7 @@
         <v>9.9449658504557739E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>0</v>
       </c>
@@ -4212,7 +4568,7 @@
         <v>0.56733814424706741</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>0</v>
       </c>
@@ -4241,7 +4597,7 @@
         <v>0.75822594442563596</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>0</v>
       </c>
@@ -4270,7 +4626,7 @@
         <v>0.38975058581651179</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>0</v>
       </c>
@@ -4299,7 +4655,7 @@
         <v>0.53516908792958084</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>0</v>
       </c>
@@ -4310,7 +4666,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>0</v>
       </c>
@@ -4339,7 +4695,7 @@
         <v>0.1304190428752493</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>0</v>
       </c>
@@ -4368,7 +4724,7 @@
         <v>0.6115890861297737</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>0</v>
       </c>
@@ -4397,7 +4753,7 @@
         <v>0.64158546830466567</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>0</v>
       </c>
@@ -4426,7 +4782,7 @@
         <v>0.67207015157649008</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>0</v>
       </c>
@@ -4455,7 +4811,7 @@
         <v>0.79008190663693645</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>0</v>
       </c>
@@ -4484,7 +4840,7 @@
         <v>0.2352884212652164</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>0</v>
       </c>
@@ -4513,7 +4869,7 @@
         <v>3.9860266563209193E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>0</v>
       </c>
@@ -4524,7 +4880,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>0</v>
       </c>
@@ -4535,7 +4891,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>0</v>
       </c>
@@ -4564,7 +4920,7 @@
         <v>0.92000627553780512</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>0</v>
       </c>
@@ -4593,7 +4949,7 @@
         <v>0.53236248432799316</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>0</v>
       </c>
@@ -4604,7 +4960,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>0</v>
       </c>
@@ -4633,7 +4989,7 @@
         <v>0.36004998643699598</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>0</v>
       </c>
@@ -4662,7 +5018,7 @@
         <v>0.89021522086283777</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>0</v>
       </c>
@@ -4674,6 +5030,36 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E2:E145 G2:G145 I2:I145">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="between">
+      <formula>0.051</formula>
+      <formula>0.1</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="16" priority="6">
+      <formula>LEN(TRIM(E2))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="lessThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D145 F2:F145 H2:H145">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThanOrEqual">
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThanOrEqual">
+      <formula>-0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="between">
+      <formula>-0.25</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="3" priority="1">
+      <formula>LEN(TRIM(D2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/migratoryDataNightly.xlsx
+++ b/migratoryDataNightly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/Documents/sci re v2/GEOBIRDMGRTY/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8649815B-B6E4-E34A-BA14-3AC99BD2D274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9257B0E4-9FEF-2A4D-A033-DDA73DB8F119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/migratoryDataNightly.xlsx
+++ b/migratoryDataNightly.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11009"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\subze\Downloads\python testing\GEOBIRDMGRTY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/Documents/sci re v2/GEOBIRDMGRTY/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2652619-92F2-4E00-8DDB-B1BE8F8CF4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63754852-C3A6-8D4A-A284-403C71085842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4905" yWindow="1470" windowWidth="30870" windowHeight="18945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="223">
   <si>
     <t>species</t>
   </si>
@@ -700,6 +699,9 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>STATUS</t>
   </si>
 </sst>
 </file>
@@ -707,7 +709,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -778,7 +780,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -789,13 +791,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -850,164 +851,6 @@
       <fill>
         <patternFill>
           <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1382,39 +1225,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB145"/>
+  <dimension ref="A1:AC145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L81" sqref="L81"/>
+      <selection pane="bottomLeft" activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="9" width="20.140625" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
+    <col min="8" max="9" width="20.1640625" customWidth="1"/>
+    <col min="10" max="10" width="10.5" customWidth="1"/>
+    <col min="11" max="11" width="9.5" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
     <col min="13" max="13" width="9" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" customWidth="1"/>
-    <col min="15" max="16" width="10.42578125" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" customWidth="1"/>
-    <col min="19" max="19" width="8.28515625" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" customWidth="1"/>
-    <col min="23" max="23" width="11.140625" customWidth="1"/>
+    <col min="14" max="14" width="9.1640625" customWidth="1"/>
+    <col min="15" max="16" width="10.5" customWidth="1"/>
+    <col min="17" max="17" width="11.1640625" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" customWidth="1"/>
+    <col min="19" max="19" width="8.33203125" customWidth="1"/>
+    <col min="22" max="22" width="12.5" customWidth="1"/>
+    <col min="23" max="23" width="11.1640625" customWidth="1"/>
     <col min="24" max="24" width="12" customWidth="1"/>
-    <col min="25" max="25" width="10.7109375" customWidth="1"/>
+    <col min="25" max="25" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1496,8 +1339,11 @@
       <c r="AB1" s="3" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC1" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1578,14 +1424,14 @@
         <v>0.14643029807173805</v>
       </c>
       <c r="Z2">
-        <f>SUM(L2,O2,R2,U2)/SUM(J2:U2)</f>
+        <f t="shared" ref="Z2:Z33" si="0">SUM(L2,O2,R2,U2)/SUM(J2:U2)</f>
         <v>7.6043980532218225E-2</v>
       </c>
       <c r="AB2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1650,27 +1496,27 @@
         <v>56165</v>
       </c>
       <c r="V3" s="4">
-        <f t="shared" ref="V3:V66" si="0">J3/SUM(J3:L3)</f>
+        <f t="shared" ref="V3:V66" si="1">J3/SUM(J3:L3)</f>
         <v>4.2041064638783272E-2</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W66" si="1">M3/SUM(M3:O3)</f>
+        <f t="shared" ref="W3:W66" si="2">M3/SUM(M3:O3)</f>
         <v>8.7736198808387404E-3</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X3:X66" si="2">P3/SUM(P3:R3)</f>
+        <f t="shared" ref="X3:X66" si="3">P3/SUM(P3:R3)</f>
         <v>7.8904701855521536E-3</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3:Y66" si="3">S3/SUM(S3:U3)</f>
+        <f t="shared" ref="Y3:Y66" si="4">S3/SUM(S3:U3)</f>
         <v>2.0289572220709498E-2</v>
       </c>
       <c r="Z3">
-        <f>SUM(L3,O3,R3,U3)/SUM(J3:U3)</f>
+        <f t="shared" si="0"/>
         <v>0.10382586754043729</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -1735,27 +1581,27 @@
         <v>47970</v>
       </c>
       <c r="V4" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0616184704092766E-2</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="2"/>
+        <v>2.2161897026612147E-3</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="3"/>
+        <v>9.1544735834182085E-4</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="4"/>
+        <v>5.2800999944352415E-3</v>
+      </c>
+      <c r="Z4">
         <f t="shared" si="0"/>
-        <v>1.0616184704092766E-2</v>
-      </c>
-      <c r="W4">
-        <f t="shared" si="1"/>
-        <v>2.2161897026612147E-3</v>
-      </c>
-      <c r="X4">
-        <f t="shared" si="2"/>
-        <v>9.1544735834182085E-4</v>
-      </c>
-      <c r="Y4">
-        <f t="shared" si="3"/>
-        <v>5.2800999944352415E-3</v>
-      </c>
-      <c r="Z4">
-        <f>SUM(L4,O4,R4,U4)/SUM(J4:U4)</f>
         <v>0.11433374645539057</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -1820,30 +1666,30 @@
         <v>675890</v>
       </c>
       <c r="V5" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="4"/>
+        <v>9.9892715223849579E-7</v>
+      </c>
+      <c r="Z5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" si="3"/>
-        <v>9.9892715223849579E-7</v>
-      </c>
-      <c r="Z5">
-        <f>SUM(L5,O5,R5,U5)/SUM(J5:U5)</f>
         <v>0.30308207974829465</v>
       </c>
-      <c r="AB5" s="5" t="s">
+      <c r="AB5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -1890,30 +1736,30 @@
         <v>2086824</v>
       </c>
       <c r="V6" s="4">
+        <f t="shared" si="1"/>
+        <v>5.8996017572160486E-7</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="2"/>
+        <v>4.5036727451236482E-7</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="4"/>
+        <v>2.2575355973856835E-7</v>
+      </c>
+      <c r="Z6">
         <f t="shared" si="0"/>
-        <v>5.8996017572160486E-7</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="1"/>
-        <v>4.5036727451236482E-7</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" si="3"/>
-        <v>2.2575355973856835E-7</v>
-      </c>
-      <c r="Z6">
-        <f>SUM(L6,O6,R6,U6)/SUM(J6:U6)</f>
         <v>0.449792459001084</v>
       </c>
-      <c r="AB6" s="5" t="s">
+      <c r="AB6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -1978,28 +1824,27 @@
         <v>40042</v>
       </c>
       <c r="V7" s="4">
+        <f t="shared" si="1"/>
+        <v>8.4663597378196575E-3</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="2"/>
+        <v>8.392060610959649E-3</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="3"/>
+        <v>1.3649806024888174E-2</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="4"/>
+        <v>1.0612332817076815E-2</v>
+      </c>
+      <c r="Z7">
         <f t="shared" si="0"/>
-        <v>8.4663597378196575E-3</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="1"/>
-        <v>8.392060610959649E-3</v>
-      </c>
-      <c r="X7">
-        <f t="shared" si="2"/>
-        <v>1.3649806024888174E-2</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" si="3"/>
-        <v>1.0612332817076815E-2</v>
-      </c>
-      <c r="Z7">
-        <f>SUM(L7,O7,R7,U7)/SUM(J7:U7)</f>
         <v>7.4379047957667505E-2</v>
       </c>
-      <c r="AB7" s="5"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -2064,27 +1909,27 @@
         <v>11035</v>
       </c>
       <c r="V8" s="4">
+        <f t="shared" si="1"/>
+        <v>3.1007525389055306E-2</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="2"/>
+        <v>5.2329936218989036E-2</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="3"/>
+        <v>9.4808611155849043E-2</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="4"/>
+        <v>5.1019024809074068E-2</v>
+      </c>
+      <c r="Z8">
         <f t="shared" si="0"/>
-        <v>3.1007525389055306E-2</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="1"/>
-        <v>5.2329936218989036E-2</v>
-      </c>
-      <c r="X8">
-        <f t="shared" si="2"/>
-        <v>9.4808611155849043E-2</v>
-      </c>
-      <c r="Y8">
-        <f t="shared" si="3"/>
-        <v>5.1019024809074068E-2</v>
-      </c>
-      <c r="Z8">
-        <f>SUM(L8,O8,R8,U8)/SUM(J8:U8)</f>
         <v>0.11212484993997598</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -2149,27 +1994,27 @@
         <v>66244</v>
       </c>
       <c r="V9" s="4">
+        <f t="shared" si="1"/>
+        <v>4.8066661078981922E-2</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="2"/>
+        <v>3.8209961319096451E-2</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="3"/>
+        <v>5.0375043792080555E-2</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="4"/>
+        <v>6.0588270989064642E-2</v>
+      </c>
+      <c r="Z9">
         <f t="shared" si="0"/>
-        <v>4.8066661078981922E-2</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="1"/>
-        <v>3.8209961319096451E-2</v>
-      </c>
-      <c r="X9">
-        <f t="shared" si="2"/>
-        <v>5.0375043792080555E-2</v>
-      </c>
-      <c r="Y9">
-        <f t="shared" si="3"/>
-        <v>6.0588270989064642E-2</v>
-      </c>
-      <c r="Z9">
-        <f>SUM(L9,O9,R9,U9)/SUM(J9:U9)</f>
         <v>0.10577956871912969</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -2234,27 +2079,27 @@
         <v>778352</v>
       </c>
       <c r="V10" s="4">
+        <f t="shared" si="1"/>
+        <v>1.9724858108409637E-2</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="2"/>
+        <v>1.9679548136384731E-2</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="3"/>
+        <v>2.9052346962626426E-2</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="4"/>
+        <v>2.9492263619327708E-2</v>
+      </c>
+      <c r="Z10">
         <f t="shared" si="0"/>
-        <v>1.9724858108409637E-2</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="1"/>
-        <v>1.9679548136384731E-2</v>
-      </c>
-      <c r="X10">
-        <f t="shared" si="2"/>
-        <v>2.9052346962626426E-2</v>
-      </c>
-      <c r="Y10">
-        <f t="shared" si="3"/>
-        <v>2.9492263619327708E-2</v>
-      </c>
-      <c r="Z10">
-        <f>SUM(L10,O10,R10,U10)/SUM(J10:U10)</f>
         <v>0.38949278105650842</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -2319,30 +2164,30 @@
         <v>1008163</v>
       </c>
       <c r="V11" s="4">
+        <f t="shared" si="1"/>
+        <v>2.2507207746287332E-2</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="2"/>
+        <v>6.5514856983957942E-4</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="3"/>
+        <v>7.3760582951361661E-5</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="4"/>
+        <v>8.942959634826976E-3</v>
+      </c>
+      <c r="Z11">
         <f t="shared" si="0"/>
-        <v>2.2507207746287332E-2</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="1"/>
-        <v>6.5514856983957942E-4</v>
-      </c>
-      <c r="X11">
-        <f t="shared" si="2"/>
-        <v>7.3760582951361661E-5</v>
-      </c>
-      <c r="Y11">
-        <f t="shared" si="3"/>
-        <v>8.942959634826976E-3</v>
-      </c>
-      <c r="Z11">
-        <f>SUM(L11,O11,R11,U11)/SUM(J11:U11)</f>
         <v>0.49129739428052138</v>
       </c>
       <c r="AB11" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -2407,27 +2252,27 @@
         <v>1066574</v>
       </c>
       <c r="V12" s="4">
+        <f t="shared" si="1"/>
+        <v>1.45097567949036E-2</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="2"/>
+        <v>8.9902096246799283E-3</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="3"/>
+        <v>1.5447945956897958E-2</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="4"/>
+        <v>2.6590208565928419E-2</v>
+      </c>
+      <c r="Z12">
         <f t="shared" si="0"/>
-        <v>1.45097567949036E-2</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="1"/>
-        <v>8.9902096246799283E-3</v>
-      </c>
-      <c r="X12">
-        <f t="shared" si="2"/>
-        <v>1.5447945956897958E-2</v>
-      </c>
-      <c r="Y12">
-        <f t="shared" si="3"/>
-        <v>2.6590208565928419E-2</v>
-      </c>
-      <c r="Z12">
-        <f>SUM(L12,O12,R12,U12)/SUM(J12:U12)</f>
         <v>0.39263902310555887</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -2492,27 +2337,27 @@
         <v>66804</v>
       </c>
       <c r="V13" s="4">
+        <f t="shared" si="1"/>
+        <v>9.7207594574618E-3</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="2"/>
+        <v>7.7244455327428862E-3</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="3"/>
+        <v>2.3140257870279467E-2</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="4"/>
+        <v>1.1994738705924015E-2</v>
+      </c>
+      <c r="Z13">
         <f t="shared" si="0"/>
-        <v>9.7207594574618E-3</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="1"/>
-        <v>7.7244455327428862E-3</v>
-      </c>
-      <c r="X13">
-        <f t="shared" si="2"/>
-        <v>2.3140257870279467E-2</v>
-      </c>
-      <c r="Y13">
-        <f t="shared" si="3"/>
-        <v>1.1994738705924015E-2</v>
-      </c>
-      <c r="Z13">
-        <f>SUM(L13,O13,R13,U13)/SUM(J13:U13)</f>
         <v>8.0915069072350659E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -2559,30 +2404,30 @@
         <v>24491</v>
       </c>
       <c r="V14" s="4">
+        <f t="shared" si="1"/>
+        <v>2.5293817066939193E-2</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="2"/>
+        <v>7.0556121032664017E-4</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="3"/>
+        <v>6.6649906748595387E-4</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="4"/>
+        <v>2.4647139731743114E-3</v>
+      </c>
+      <c r="Z14">
         <f t="shared" si="0"/>
-        <v>2.5293817066939193E-2</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="1"/>
-        <v>7.0556121032664017E-4</v>
-      </c>
-      <c r="X14">
-        <f t="shared" si="2"/>
-        <v>6.6649906748595387E-4</v>
-      </c>
-      <c r="Y14">
-        <f t="shared" si="3"/>
-        <v>2.4647139731743114E-3</v>
-      </c>
-      <c r="Z14">
-        <f>SUM(L14,O14,R14,U14)/SUM(J14:U14)</f>
         <v>0.41513541875145371</v>
       </c>
       <c r="AB14" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -2647,27 +2492,27 @@
         <v>7898</v>
       </c>
       <c r="V15" s="4">
+        <f t="shared" si="1"/>
+        <v>0.1743502824858757</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="2"/>
+        <v>5.5597435550867479E-4</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="3"/>
+        <v>5.7237628296049764E-5</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="4"/>
+        <v>2.413486357604305E-2</v>
+      </c>
+      <c r="Z15">
         <f t="shared" si="0"/>
-        <v>0.1743502824858757</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="1"/>
-        <v>5.5597435550867479E-4</v>
-      </c>
-      <c r="X15">
-        <f t="shared" si="2"/>
-        <v>5.7237628296049764E-5</v>
-      </c>
-      <c r="Y15">
-        <f t="shared" si="3"/>
-        <v>2.413486357604305E-2</v>
-      </c>
-      <c r="Z15">
-        <f>SUM(L15,O15,R15,U15)/SUM(J15:U15)</f>
         <v>0.13650709212819423</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -2732,30 +2577,30 @@
         <v>30453</v>
       </c>
       <c r="V16" s="4">
+        <f t="shared" si="1"/>
+        <v>0.33526790340967977</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="2"/>
+        <v>9.5239226210975074E-3</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="3"/>
+        <v>5.4929122830053448E-3</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="4"/>
+        <v>2.4619520641574775E-2</v>
+      </c>
+      <c r="Z16">
         <f t="shared" si="0"/>
-        <v>0.33526790340967977</v>
-      </c>
-      <c r="W16">
-        <f t="shared" si="1"/>
-        <v>9.5239226210975074E-3</v>
-      </c>
-      <c r="X16">
-        <f t="shared" si="2"/>
-        <v>5.4929122830053448E-3</v>
-      </c>
-      <c r="Y16">
-        <f t="shared" si="3"/>
-        <v>2.4619520641574775E-2</v>
-      </c>
-      <c r="Z16">
-        <f>SUM(L16,O16,R16,U16)/SUM(J16:U16)</f>
         <v>0.1645074684477898</v>
       </c>
       <c r="AB16" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -2820,30 +2665,30 @@
         <v>8791</v>
       </c>
       <c r="V17" s="4">
+        <f t="shared" si="1"/>
+        <v>0.61953242835595779</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="2"/>
+        <v>1.7677774957392031E-2</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="3"/>
+        <v>4.8930328648707421E-3</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="4"/>
+        <v>5.3631217632181143E-2</v>
+      </c>
+      <c r="Z17">
         <f t="shared" si="0"/>
-        <v>0.61953242835595779</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="1"/>
-        <v>1.7677774957392031E-2</v>
-      </c>
-      <c r="X17">
-        <f t="shared" si="2"/>
-        <v>4.8930328648707421E-3</v>
-      </c>
-      <c r="Y17">
-        <f t="shared" si="3"/>
-        <v>5.3631217632181143E-2</v>
-      </c>
-      <c r="Z17">
-        <f>SUM(L17,O17,R17,U17)/SUM(J17:U17)</f>
         <v>0.19361530994314241</v>
       </c>
       <c r="AB17" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -2908,30 +2753,30 @@
         <v>1629</v>
       </c>
       <c r="V18" s="4">
+        <f t="shared" si="1"/>
+        <v>0.75073746312684364</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="2"/>
+        <v>1.0838973396770087E-2</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="3"/>
+        <v>3.0694125728985487E-4</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="4"/>
+        <v>0.1683141380248481</v>
+      </c>
+      <c r="Z18">
         <f t="shared" si="0"/>
-        <v>0.75073746312684364</v>
-      </c>
-      <c r="W18">
-        <f t="shared" si="1"/>
-        <v>1.0838973396770087E-2</v>
-      </c>
-      <c r="X18">
-        <f t="shared" si="2"/>
-        <v>3.0694125728985487E-4</v>
-      </c>
-      <c r="Y18">
-        <f t="shared" si="3"/>
-        <v>0.1683141380248481</v>
-      </c>
-      <c r="Z18">
-        <f>SUM(L18,O18,R18,U18)/SUM(J18:U18)</f>
         <v>0.12943797511602084</v>
       </c>
       <c r="AB18" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -2996,30 +2841,30 @@
         <v>53700</v>
       </c>
       <c r="V19" s="4">
+        <f t="shared" si="1"/>
+        <v>0.10080836899667142</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="2"/>
+        <v>6.2037350167211514E-2</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="3"/>
+        <v>4.1546838452394645E-2</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="4"/>
+        <v>7.1748336358136724E-2</v>
+      </c>
+      <c r="Z19">
         <f t="shared" si="0"/>
-        <v>0.10080836899667142</v>
-      </c>
-      <c r="W19">
-        <f t="shared" si="1"/>
-        <v>6.2037350167211514E-2</v>
-      </c>
-      <c r="X19">
-        <f t="shared" si="2"/>
-        <v>4.1546838452394645E-2</v>
-      </c>
-      <c r="Y19">
-        <f t="shared" si="3"/>
-        <v>7.1748336358136724E-2</v>
-      </c>
-      <c r="Z19">
-        <f>SUM(L19,O19,R19,U19)/SUM(J19:U19)</f>
         <v>0.9270068826042992</v>
       </c>
       <c r="AB19" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -3084,30 +2929,30 @@
         <v>4180</v>
       </c>
       <c r="V20" s="4">
+        <f t="shared" si="1"/>
+        <v>0.15123925139099645</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="2"/>
+        <v>7.2164948453608241E-2</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="3"/>
+        <v>9.3866401787931458E-2</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="4"/>
+        <v>3.3133916244822828E-2</v>
+      </c>
+      <c r="Z20">
         <f t="shared" si="0"/>
-        <v>0.15123925139099645</v>
-      </c>
-      <c r="W20">
-        <f t="shared" si="1"/>
-        <v>7.2164948453608241E-2</v>
-      </c>
-      <c r="X20">
-        <f t="shared" si="2"/>
-        <v>9.3866401787931458E-2</v>
-      </c>
-      <c r="Y20">
-        <f t="shared" si="3"/>
-        <v>3.3133916244822828E-2</v>
-      </c>
-      <c r="Z20">
-        <f>SUM(L20,O20,R20,U20)/SUM(J20:U20)</f>
         <v>0.91587632045647316</v>
       </c>
       <c r="AB20" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -3172,27 +3017,27 @@
         <v>45444</v>
       </c>
       <c r="V21" s="4">
+        <f t="shared" si="1"/>
+        <v>2.0904651426902673E-2</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="2"/>
+        <v>3.1616921678240519E-2</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="3"/>
+        <v>2.5237961015589429E-2</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="4"/>
+        <v>3.7076584047072723E-2</v>
+      </c>
+      <c r="Z21">
         <f t="shared" si="0"/>
-        <v>2.0904651426902673E-2</v>
-      </c>
-      <c r="W21">
-        <f t="shared" si="1"/>
-        <v>3.1616921678240519E-2</v>
-      </c>
-      <c r="X21">
-        <f t="shared" si="2"/>
-        <v>2.5237961015589429E-2</v>
-      </c>
-      <c r="Y21">
-        <f t="shared" si="3"/>
-        <v>3.7076584047072723E-2</v>
-      </c>
-      <c r="Z21">
-        <f>SUM(L21,O21,R21,U21)/SUM(J21:U21)</f>
         <v>0.58568500825666425</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -3257,27 +3102,27 @@
         <v>174979</v>
       </c>
       <c r="V22" s="4">
+        <f t="shared" si="1"/>
+        <v>1.4782191904527047E-2</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="2"/>
+        <v>8.5313780461505288E-3</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="3"/>
+        <v>6.5656729490381812E-3</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="4"/>
+        <v>1.7756761823706037E-2</v>
+      </c>
+      <c r="Z22">
         <f t="shared" si="0"/>
-        <v>1.4782191904527047E-2</v>
-      </c>
-      <c r="W22">
-        <f t="shared" si="1"/>
-        <v>8.5313780461505288E-3</v>
-      </c>
-      <c r="X22">
-        <f t="shared" si="2"/>
-        <v>6.5656729490381812E-3</v>
-      </c>
-      <c r="Y22">
-        <f t="shared" si="3"/>
-        <v>1.7756761823706037E-2</v>
-      </c>
-      <c r="Z22">
-        <f>SUM(L22,O22,R22,U22)/SUM(J22:U22)</f>
         <v>0.50888359375000003</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -3342,27 +3187,27 @@
         <v>401384</v>
       </c>
       <c r="V23" s="4">
+        <f t="shared" si="1"/>
+        <v>2.4163091181646688E-2</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="2"/>
+        <v>1.9382582843658548E-2</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="3"/>
+        <v>2.9073617720635832E-2</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="4"/>
+        <v>3.5661616838718324E-2</v>
+      </c>
+      <c r="Z23">
         <f t="shared" si="0"/>
-        <v>2.4163091181646688E-2</v>
-      </c>
-      <c r="W23">
-        <f t="shared" si="1"/>
-        <v>1.9382582843658548E-2</v>
-      </c>
-      <c r="X23">
-        <f t="shared" si="2"/>
-        <v>2.9073617720635832E-2</v>
-      </c>
-      <c r="Y23">
-        <f t="shared" si="3"/>
-        <v>3.5661616838718324E-2</v>
-      </c>
-      <c r="Z23">
-        <f>SUM(L23,O23,R23,U23)/SUM(J23:U23)</f>
         <v>0.59043600305222266</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -3427,30 +3272,30 @@
         <v>22152</v>
       </c>
       <c r="V24" s="4">
+        <f t="shared" si="1"/>
+        <v>9.3689979856654328E-5</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="2"/>
+        <v>1.4455462719361646E-4</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="4"/>
+        <v>1.7975104480294791E-4</v>
+      </c>
+      <c r="Z24">
         <f t="shared" si="0"/>
-        <v>9.3689979856654328E-5</v>
-      </c>
-      <c r="W24">
-        <f t="shared" si="1"/>
-        <v>1.4455462719361646E-4</v>
-      </c>
-      <c r="X24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <f t="shared" si="3"/>
-        <v>1.7975104480294791E-4</v>
-      </c>
-      <c r="Z24">
-        <f>SUM(L24,O24,R24,U24)/SUM(J24:U24)</f>
         <v>0.98920881864419019</v>
       </c>
       <c r="AB24" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -3515,30 +3360,30 @@
         <v>18225</v>
       </c>
       <c r="V25" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0379596678529062E-3</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="2"/>
+        <v>3.9292730844793711E-4</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="3"/>
+        <v>1.0443864229765013E-4</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="4"/>
+        <v>2.1778189143572711E-4</v>
+      </c>
+      <c r="Z25">
         <f t="shared" si="0"/>
-        <v>1.0379596678529062E-3</v>
-      </c>
-      <c r="W25">
-        <f t="shared" si="1"/>
-        <v>3.9292730844793711E-4</v>
-      </c>
-      <c r="X25">
-        <f t="shared" si="2"/>
-        <v>1.0443864229765013E-4</v>
-      </c>
-      <c r="Y25">
-        <f t="shared" si="3"/>
-        <v>2.1778189143572711E-4</v>
-      </c>
-      <c r="Z25">
-        <f>SUM(L25,O25,R25,U25)/SUM(J25:U25)</f>
         <v>0.98985715789843121</v>
       </c>
       <c r="AB25" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -3603,30 +3448,30 @@
         <v>7846</v>
       </c>
       <c r="V26" s="4">
+        <f t="shared" si="1"/>
+        <v>0.36088709677419356</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="2"/>
+        <v>7.1976182426906009E-4</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="3"/>
+        <v>1.1730170879264283E-5</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="4"/>
+        <v>3.507476462986893E-3</v>
+      </c>
+      <c r="Z26">
         <f t="shared" si="0"/>
-        <v>0.36088709677419356</v>
-      </c>
-      <c r="W26">
-        <f t="shared" si="1"/>
-        <v>7.1976182426906009E-4</v>
-      </c>
-      <c r="X26">
-        <f t="shared" si="2"/>
-        <v>1.1730170879264283E-5</v>
-      </c>
-      <c r="Y26">
-        <f t="shared" si="3"/>
-        <v>3.507476462986893E-3</v>
-      </c>
-      <c r="Z26">
-        <f>SUM(L26,O26,R26,U26)/SUM(J26:U26)</f>
         <v>0.11281380902853981</v>
       </c>
       <c r="AB26" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -3691,30 +3536,30 @@
         <v>390645</v>
       </c>
       <c r="V27" s="4">
+        <f t="shared" si="1"/>
+        <v>2.9390067920446965E-6</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="3"/>
+        <v>1.8227253754358592E-6</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="4"/>
+        <v>1.6547606636914069E-6</v>
+      </c>
+      <c r="Z27">
         <f t="shared" si="0"/>
-        <v>2.9390067920446965E-6</v>
-      </c>
-      <c r="W27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <f t="shared" si="2"/>
-        <v>1.8227253754358592E-6</v>
-      </c>
-      <c r="Y27">
-        <f t="shared" si="3"/>
-        <v>1.6547606636914069E-6</v>
-      </c>
-      <c r="Z27">
-        <f>SUM(L27,O27,R27,U27)/SUM(J27:U27)</f>
         <v>0.66578966039453047</v>
       </c>
       <c r="AB27" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -3779,27 +3624,27 @@
         <v>32004</v>
       </c>
       <c r="V28" s="4">
+        <f t="shared" si="1"/>
+        <v>4.220255947743113E-2</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="2"/>
+        <v>7.8849038410028389E-3</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="3"/>
+        <v>3.8193936397257302E-3</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="4"/>
+        <v>1.3843389719773056E-2</v>
+      </c>
+      <c r="Z28">
         <f t="shared" si="0"/>
-        <v>4.220255947743113E-2</v>
-      </c>
-      <c r="W28">
-        <f t="shared" si="1"/>
-        <v>7.8849038410028389E-3</v>
-      </c>
-      <c r="X28">
-        <f t="shared" si="2"/>
-        <v>3.8193936397257302E-3</v>
-      </c>
-      <c r="Y28">
-        <f t="shared" si="3"/>
-        <v>1.3843389719773056E-2</v>
-      </c>
-      <c r="Z28">
-        <f>SUM(L28,O28,R28,U28)/SUM(J28:U28)</f>
         <v>0.12702021472304464</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -3864,30 +3709,30 @@
         <v>13265</v>
       </c>
       <c r="V29" s="4">
+        <f t="shared" si="1"/>
+        <v>0.45560553056804931</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="2"/>
+        <v>0.47099186615781968</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="3"/>
+        <v>0.54222535873912026</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="4"/>
+        <v>0.60973170157684164</v>
+      </c>
+      <c r="Z29">
         <f t="shared" si="0"/>
-        <v>0.45560553056804931</v>
-      </c>
-      <c r="W29">
-        <f t="shared" si="1"/>
-        <v>0.47099186615781968</v>
-      </c>
-      <c r="X29">
-        <f t="shared" si="2"/>
-        <v>0.54222535873912026</v>
-      </c>
-      <c r="Y29">
-        <f t="shared" si="3"/>
-        <v>0.60973170157684164</v>
-      </c>
-      <c r="Z29">
-        <f>SUM(L29,O29,R29,U29)/SUM(J29:U29)</f>
         <v>0.47638020337103953</v>
       </c>
       <c r="AB29" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -3934,27 +3779,27 @@
         <v>208751</v>
       </c>
       <c r="V30" s="4">
+        <f t="shared" si="1"/>
+        <v>1.4980031083564499E-4</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="2"/>
+        <v>7.88856564362329E-5</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="3"/>
+        <v>1.5290663021871889E-4</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="4"/>
+        <v>2.9327984628090817E-4</v>
+      </c>
+      <c r="Z30">
         <f t="shared" si="0"/>
-        <v>1.4980031083564499E-4</v>
-      </c>
-      <c r="W30">
-        <f t="shared" si="1"/>
-        <v>7.88856564362329E-5</v>
-      </c>
-      <c r="X30">
-        <f t="shared" si="2"/>
-        <v>1.5290663021871889E-4</v>
-      </c>
-      <c r="Y30">
-        <f t="shared" si="3"/>
-        <v>2.9327984628090817E-4</v>
-      </c>
-      <c r="Z30">
-        <f>SUM(L30,O30,R30,U30)/SUM(J30:U30)</f>
         <v>0.68348702414714047</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>0</v>
       </c>
@@ -4019,27 +3864,27 @@
         <v>4020</v>
       </c>
       <c r="V31" s="4">
+        <f t="shared" si="1"/>
+        <v>6.1409375570012767E-3</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="2"/>
+        <v>1.4488082812698656E-4</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="3"/>
+        <v>6.7765863728060807E-5</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="4"/>
+        <v>1.3397974780282767E-2</v>
+      </c>
+      <c r="Z31">
         <f t="shared" si="0"/>
-        <v>6.1409375570012767E-3</v>
-      </c>
-      <c r="W31">
-        <f t="shared" si="1"/>
-        <v>1.4488082812698656E-4</v>
-      </c>
-      <c r="X31">
-        <f t="shared" si="2"/>
-        <v>6.7765863728060807E-5</v>
-      </c>
-      <c r="Y31">
-        <f t="shared" si="3"/>
-        <v>1.3397974780282767E-2</v>
-      </c>
-      <c r="Z31">
-        <f>SUM(L31,O31,R31,U31)/SUM(J31:U31)</f>
         <v>9.911622490474449E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -4104,27 +3949,27 @@
         <v>2735</v>
       </c>
       <c r="V32" s="4">
+        <f t="shared" si="1"/>
+        <v>9.7116843702579669E-2</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="2"/>
+        <v>8.2734827608653194E-2</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="3"/>
+        <v>0.11755993705452189</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="4"/>
+        <v>0.20340716843057796</v>
+      </c>
+      <c r="Z32">
         <f t="shared" si="0"/>
-        <v>9.7116843702579669E-2</v>
-      </c>
-      <c r="W32">
-        <f t="shared" si="1"/>
-        <v>8.2734827608653194E-2</v>
-      </c>
-      <c r="X32">
-        <f t="shared" si="2"/>
-        <v>0.11755993705452189</v>
-      </c>
-      <c r="Y32">
-        <f t="shared" si="3"/>
-        <v>0.20340716843057796</v>
-      </c>
-      <c r="Z32">
-        <f>SUM(L32,O32,R32,U32)/SUM(J32:U32)</f>
         <v>0.11926482520196141</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>0</v>
       </c>
@@ -4189,27 +4034,27 @@
         <v>16622</v>
       </c>
       <c r="V33" s="4">
+        <f t="shared" si="1"/>
+        <v>0.15524594825135057</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="2"/>
+        <v>1.473514051231037E-2</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="3"/>
+        <v>2.3352912037364658E-3</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="4"/>
+        <v>1.716291769600832E-2</v>
+      </c>
+      <c r="Z33">
         <f t="shared" si="0"/>
-        <v>0.15524594825135057</v>
-      </c>
-      <c r="W33">
-        <f t="shared" si="1"/>
-        <v>1.473514051231037E-2</v>
-      </c>
-      <c r="X33">
-        <f t="shared" si="2"/>
-        <v>2.3352912037364658E-3</v>
-      </c>
-      <c r="Y33">
-        <f t="shared" si="3"/>
-        <v>1.716291769600832E-2</v>
-      </c>
-      <c r="Z33">
-        <f>SUM(L33,O33,R33,U33)/SUM(J33:U33)</f>
         <v>0.7627472328071131</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>0</v>
       </c>
@@ -4274,27 +4119,27 @@
         <v>5869</v>
       </c>
       <c r="V34" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16377643458534433</v>
       </c>
       <c r="W34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.25497947964908318</v>
       </c>
       <c r="X34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.48232743043006865</v>
       </c>
       <c r="Y34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.26207819520122361</v>
       </c>
       <c r="Z34">
-        <f>SUM(L34,O34,R34,U34)/SUM(J34:U34)</f>
+        <f t="shared" ref="Z34:Z65" si="5">SUM(L34,O34,R34,U34)/SUM(J34:U34)</f>
         <v>0.14001831225411773</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -4359,27 +4204,27 @@
         <v>93203</v>
       </c>
       <c r="V35" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2610374791538664E-2</v>
       </c>
       <c r="W35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.6512227147525445E-3</v>
       </c>
       <c r="X35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.389944402223911E-3</v>
       </c>
       <c r="Y35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2165085348354072E-2</v>
       </c>
       <c r="Z35">
-        <f>SUM(L35,O35,R35,U35)/SUM(J35:U35)</f>
+        <f t="shared" si="5"/>
         <v>0.69769051866508003</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -4444,27 +4289,27 @@
         <v>96219</v>
       </c>
       <c r="V36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.6272128935805574E-2</v>
       </c>
       <c r="W36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.286531433337271E-4</v>
       </c>
       <c r="X36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0356290093638933E-4</v>
       </c>
       <c r="Y36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.1747313313605008E-3</v>
       </c>
       <c r="Z36">
-        <f>SUM(L36,O36,R36,U36)/SUM(J36:U36)</f>
+        <f t="shared" si="5"/>
         <v>0.66992577118843943</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>0</v>
       </c>
@@ -4511,30 +4356,30 @@
         <v>400415</v>
       </c>
       <c r="V37" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.6332906123502065E-7</v>
       </c>
       <c r="W37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.1741597999009661E-6</v>
       </c>
       <c r="Z37">
-        <f>SUM(L37,O37,R37,U37)/SUM(J37:U37)</f>
+        <f t="shared" si="5"/>
         <v>0.44216710567362177</v>
       </c>
       <c r="AB37" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -4599,27 +4444,27 @@
         <v>101908</v>
       </c>
       <c r="V38" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.5060201757240482E-2</v>
       </c>
       <c r="W38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0606412394199717E-3</v>
       </c>
       <c r="X38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0655713884395191E-4</v>
       </c>
       <c r="Y38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5245777469913057E-2</v>
       </c>
       <c r="Z38">
-        <f>SUM(L38,O38,R38,U38)/SUM(J38:U38)</f>
+        <f t="shared" si="5"/>
         <v>0.61167143070024521</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>0</v>
       </c>
@@ -4684,27 +4529,27 @@
         <v>62617</v>
       </c>
       <c r="V39" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.3334272829763244E-2</v>
       </c>
       <c r="W39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.002636932117833E-3</v>
       </c>
       <c r="X39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.7400421101208503E-4</v>
       </c>
       <c r="Y39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.1496193176651483E-3</v>
       </c>
       <c r="Z39">
-        <f>SUM(L39,O39,R39,U39)/SUM(J39:U39)</f>
+        <f t="shared" si="5"/>
         <v>0.73274584959789302</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>0</v>
       </c>
@@ -4769,27 +4614,27 @@
         <v>41824</v>
       </c>
       <c r="V40" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.20458802563227543</v>
       </c>
       <c r="W40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.22183704892744416</v>
       </c>
       <c r="X40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.37563720566666525</v>
       </c>
       <c r="Y40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.30985557650831647</v>
       </c>
       <c r="Z40">
-        <f>SUM(L40,O40,R40,U40)/SUM(J40:U40)</f>
+        <f t="shared" si="5"/>
         <v>0.12760642829993257</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>0</v>
       </c>
@@ -4836,30 +4681,30 @@
         <v>21670</v>
       </c>
       <c r="V41" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z41">
-        <f>SUM(L41,O41,R41,U41)/SUM(J41:U41)</f>
+        <f t="shared" si="5"/>
         <v>9.2032962111485983E-2</v>
       </c>
       <c r="AB41" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>0</v>
       </c>
@@ -4906,27 +4751,27 @@
         <v>10398</v>
       </c>
       <c r="V42" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.8199105145413867E-2</v>
       </c>
       <c r="W42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.231633624009853E-2</v>
       </c>
       <c r="X42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5681823142913272E-2</v>
       </c>
       <c r="Y42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.2385264828979648E-2</v>
       </c>
       <c r="Z42">
-        <f>SUM(L42,O42,R42,U42)/SUM(J42:U42)</f>
+        <f t="shared" si="5"/>
         <v>0.1977663572816574</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>0</v>
       </c>
@@ -4991,27 +4836,27 @@
         <v>2327</v>
       </c>
       <c r="V43" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.74214818670831162</v>
       </c>
       <c r="W43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.7766934751152539E-2</v>
       </c>
       <c r="X43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.1459249300534136E-2</v>
       </c>
       <c r="Y43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.14202012940330697</v>
       </c>
       <c r="Z43">
-        <f>SUM(L43,O43,R43,U43)/SUM(J43:U43)</f>
+        <f t="shared" si="5"/>
         <v>0.17772321379416656</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>0</v>
       </c>
@@ -5076,27 +4921,27 @@
         <v>141226</v>
       </c>
       <c r="V44" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4252961406190295E-2</v>
       </c>
       <c r="W44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.3149475015630945E-3</v>
       </c>
       <c r="X44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.0195401133732035E-3</v>
       </c>
       <c r="Y44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3647061970098157E-2</v>
       </c>
       <c r="Z44">
-        <f>SUM(L44,O44,R44,U44)/SUM(J44:U44)</f>
+        <f t="shared" si="5"/>
         <v>0.33524624277456649</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>0</v>
       </c>
@@ -5161,27 +5006,27 @@
         <v>23505</v>
       </c>
       <c r="V45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.22339769020541303</v>
       </c>
       <c r="W45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.752782838418121E-3</v>
       </c>
       <c r="X45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.5192481763484371E-6</v>
       </c>
       <c r="Y45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3957379618337252E-2</v>
       </c>
       <c r="Z45">
-        <f>SUM(L45,O45,R45,U45)/SUM(J45:U45)</f>
+        <f t="shared" si="5"/>
         <v>9.5255842886579692E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>0</v>
       </c>
@@ -5246,27 +5091,27 @@
         <v>23703</v>
       </c>
       <c r="V46" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.8271414397530596E-3</v>
       </c>
       <c r="W46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1330197217850493E-4</v>
       </c>
       <c r="X46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.6650920345333117E-5</v>
       </c>
       <c r="Y46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.1293135498698752E-3</v>
       </c>
       <c r="Z46">
-        <f>SUM(L46,O46,R46,U46)/SUM(J46:U46)</f>
+        <f t="shared" si="5"/>
         <v>0.44668642307723883</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>0</v>
       </c>
@@ -5331,27 +5176,27 @@
         <v>289161</v>
       </c>
       <c r="V47" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.4654572619213275E-3</v>
       </c>
       <c r="W47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0640390717884239E-3</v>
       </c>
       <c r="X47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3781116902071885E-3</v>
       </c>
       <c r="Y47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.5380950446555516E-3</v>
       </c>
       <c r="Z47">
-        <f>SUM(L47,O47,R47,U47)/SUM(J47:U47)</f>
+        <f t="shared" si="5"/>
         <v>0.25535805616174628</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>0</v>
       </c>
@@ -5398,30 +5243,30 @@
         <v>253941</v>
       </c>
       <c r="V48" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7732876929415867E-5</v>
       </c>
       <c r="W48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8204457907652427E-6</v>
       </c>
       <c r="X48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z48">
-        <f>SUM(L48,O48,R48,U48)/SUM(J48:U48)</f>
+        <f t="shared" si="5"/>
         <v>0.99998407427205571</v>
       </c>
       <c r="AB48" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>0</v>
       </c>
@@ -5468,30 +5313,30 @@
         <v>19018</v>
       </c>
       <c r="V49" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6418703506907541E-5</v>
       </c>
       <c r="W49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z49">
-        <f>SUM(L49,O49,R49,U49)/SUM(J49:U49)</f>
+        <f t="shared" si="5"/>
         <v>0.99641846480367879</v>
       </c>
       <c r="AB49" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>0</v>
       </c>
@@ -5556,27 +5401,27 @@
         <v>214611</v>
       </c>
       <c r="V50" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.9694215222217563E-3</v>
       </c>
       <c r="W50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.4814323712313127E-3</v>
       </c>
       <c r="X50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9282967024832785E-3</v>
       </c>
       <c r="Y50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.5376375717833652E-3</v>
       </c>
       <c r="Z50">
-        <f>SUM(L50,O50,R50,U50)/SUM(J50:U50)</f>
+        <f t="shared" si="5"/>
         <v>0.38236578164680557</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>0</v>
       </c>
@@ -5641,27 +5486,27 @@
         <v>32977</v>
       </c>
       <c r="V51" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.12125234815278647</v>
       </c>
       <c r="W51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.223782139707829E-2</v>
       </c>
       <c r="X51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9393604818920847E-3</v>
       </c>
       <c r="Y51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.4084562473199758E-2</v>
       </c>
       <c r="Z51">
-        <f>SUM(L51,O51,R51,U51)/SUM(J51:U51)</f>
+        <f t="shared" si="5"/>
         <v>0.11691043509281242</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>0</v>
       </c>
@@ -5726,27 +5571,27 @@
         <v>9127</v>
       </c>
       <c r="V52" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.4900306859993309E-2</v>
       </c>
       <c r="W52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.8499664625879464E-2</v>
       </c>
       <c r="X52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.5030501451536581E-2</v>
       </c>
       <c r="Y52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.1351850642383298E-2</v>
       </c>
       <c r="Z52">
-        <f>SUM(L52,O52,R52,U52)/SUM(J52:U52)</f>
+        <f t="shared" si="5"/>
         <v>0.11449001805475169</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>0</v>
       </c>
@@ -5811,27 +5656,27 @@
         <v>17634</v>
       </c>
       <c r="V53" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.5247083216771709E-2</v>
       </c>
       <c r="W53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.1672616978926419E-2</v>
       </c>
       <c r="X53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.13142658420587627</v>
       </c>
       <c r="Y53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15264858386096564</v>
       </c>
       <c r="Z53">
-        <f>SUM(L53,O53,R53,U53)/SUM(J53:U53)</f>
+        <f t="shared" si="5"/>
         <v>0.12364840387076566</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>0</v>
       </c>
@@ -5878,27 +5723,27 @@
         <v>451</v>
       </c>
       <c r="V54" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.843197540353574E-3</v>
       </c>
       <c r="W54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2779043280182231E-3</v>
       </c>
       <c r="X54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.8965517241379309E-3</v>
       </c>
       <c r="Y54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.771929824561403E-3</v>
       </c>
       <c r="Z54">
-        <f>SUM(L54,O54,R54,U54)/SUM(J54:U54)</f>
+        <f t="shared" si="5"/>
         <v>0.99418803418803414</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>0</v>
       </c>
@@ -5963,27 +5808,27 @@
         <v>36835</v>
       </c>
       <c r="V55" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9444574752544918E-2</v>
       </c>
       <c r="W55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.379950771984784E-3</v>
       </c>
       <c r="X55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.3059028576269958E-3</v>
       </c>
       <c r="Y55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6155088852988692E-2</v>
       </c>
       <c r="Z55">
-        <f>SUM(L55,O55,R55,U55)/SUM(J55:U55)</f>
+        <f t="shared" si="5"/>
         <v>0.63088143095621174</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>0</v>
       </c>
@@ -6048,27 +5893,27 @@
         <v>649731</v>
       </c>
       <c r="V56" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0903182921931211E-2</v>
       </c>
       <c r="W56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6962783171521036E-2</v>
       </c>
       <c r="X56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.562779000018171E-2</v>
       </c>
       <c r="Y56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5801316716881031E-2</v>
       </c>
       <c r="Z56">
-        <f>SUM(L56,O56,R56,U56)/SUM(J56:U56)</f>
+        <f t="shared" si="5"/>
         <v>0.32827534228662453</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>0</v>
       </c>
@@ -6133,27 +5978,27 @@
         <v>3104</v>
       </c>
       <c r="V57" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.50962962962962965</v>
       </c>
       <c r="W57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.4598316755929606E-4</v>
       </c>
       <c r="X57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2461059190031153E-5</v>
       </c>
       <c r="Y57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.9157208563581617E-3</v>
       </c>
       <c r="Z57">
-        <f>SUM(L57,O57,R57,U57)/SUM(J57:U57)</f>
+        <f t="shared" si="5"/>
         <v>6.1806484747732773E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>0</v>
       </c>
@@ -6200,27 +6045,27 @@
         <v>2615</v>
       </c>
       <c r="V58" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.832635983263599E-2</v>
       </c>
       <c r="W58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.8164318682139797E-4</v>
       </c>
       <c r="X58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.2383743783432743E-4</v>
       </c>
       <c r="Y58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.3422306959008578E-3</v>
       </c>
       <c r="Z58">
-        <f>SUM(L58,O58,R58,U58)/SUM(J58:U58)</f>
+        <f t="shared" si="5"/>
         <v>0.21717383881548316</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>0</v>
       </c>
@@ -6285,27 +6130,27 @@
         <v>2082</v>
       </c>
       <c r="V59" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.7934832916782375</v>
       </c>
       <c r="W59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.62748739718758295</v>
       </c>
       <c r="X59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.35474266269672478</v>
       </c>
       <c r="Y59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.79386400061054718</v>
       </c>
       <c r="Z59">
-        <f>SUM(L59,O59,R59,U59)/SUM(J59:U59)</f>
+        <f t="shared" si="5"/>
         <v>0.17331645906880702</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>0</v>
       </c>
@@ -6370,27 +6215,27 @@
         <v>3189</v>
       </c>
       <c r="V60" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.32673874031601524</v>
       </c>
       <c r="W60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.31543189906179231</v>
       </c>
       <c r="X60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.36459719721287093</v>
       </c>
       <c r="Y60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.43718452047111611</v>
       </c>
       <c r="Z60">
-        <f>SUM(L60,O60,R60,U60)/SUM(J60:U60)</f>
+        <f t="shared" si="5"/>
         <v>0.23737029243160873</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>0</v>
       </c>
@@ -6455,27 +6300,27 @@
         <v>95168</v>
       </c>
       <c r="V61" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.5445500191088675E-2</v>
       </c>
       <c r="W61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7325081686240407E-2</v>
       </c>
       <c r="X61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8789429036672051E-2</v>
       </c>
       <c r="Y61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.7717232121064189E-2</v>
       </c>
       <c r="Z61">
-        <f>SUM(L61,O61,R61,U61)/SUM(J61:U61)</f>
+        <f t="shared" si="5"/>
         <v>0.58618132634114217</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>0</v>
       </c>
@@ -6522,27 +6367,27 @@
         <v>10503</v>
       </c>
       <c r="V62" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.24947442186405044</v>
       </c>
       <c r="W62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.140872810200062E-2</v>
       </c>
       <c r="X62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.5807723788972397E-5</v>
       </c>
       <c r="Y62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.9579418702274816E-3</v>
       </c>
       <c r="Z62">
-        <f>SUM(L62,O62,R62,U62)/SUM(J62:U62)</f>
+        <f t="shared" si="5"/>
         <v>0.69520162950925501</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>0</v>
       </c>
@@ -6589,27 +6434,27 @@
         <v>13017</v>
       </c>
       <c r="V63" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1150656923251675E-2</v>
       </c>
       <c r="W63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5731742816972941E-3</v>
       </c>
       <c r="X63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3909719298079606E-3</v>
       </c>
       <c r="Y63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.8673751897829777E-3</v>
       </c>
       <c r="Z63">
-        <f>SUM(L63,O63,R63,U63)/SUM(J63:U63)</f>
+        <f t="shared" si="5"/>
         <v>0.14159096151127579</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>0</v>
       </c>
@@ -6674,30 +6519,30 @@
         <v>673019</v>
       </c>
       <c r="V64" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.4927205784141641E-4</v>
       </c>
       <c r="W64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6867559854365134E-4</v>
       </c>
       <c r="X64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.3139399437320959E-4</v>
       </c>
       <c r="Y64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.3119181431430687E-4</v>
       </c>
       <c r="Z64">
-        <f>SUM(L64,O64,R64,U64)/SUM(J64:U64)</f>
+        <f t="shared" si="5"/>
         <v>0.99557634984269927</v>
       </c>
       <c r="AB64" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>0</v>
       </c>
@@ -6762,27 +6607,27 @@
         <v>10683</v>
       </c>
       <c r="V65" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.10567296996662959</v>
       </c>
       <c r="W65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5610375650429816E-3</v>
       </c>
       <c r="X65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.1991677767431917E-3</v>
       </c>
       <c r="Y65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.0818867693062625E-2</v>
       </c>
       <c r="Z65">
-        <f>SUM(L65,O65,R65,U65)/SUM(J65:U65)</f>
+        <f t="shared" si="5"/>
         <v>8.6284958591079416E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>0</v>
       </c>
@@ -6847,27 +6692,27 @@
         <v>6292</v>
       </c>
       <c r="V66" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.20286311070355087</v>
       </c>
       <c r="W66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.2767217201620447E-2</v>
       </c>
       <c r="X66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0289058730134023E-2</v>
       </c>
       <c r="Y66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.316112640271014E-2</v>
       </c>
       <c r="Z66">
-        <f>SUM(L66,O66,R66,U66)/SUM(J66:U66)</f>
+        <f t="shared" ref="Z66:Z97" si="6">SUM(L66,O66,R66,U66)/SUM(J66:U66)</f>
         <v>0.2833118703128551</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>0</v>
       </c>
@@ -6914,30 +6759,30 @@
         <v>91744</v>
       </c>
       <c r="V67" s="4">
-        <f t="shared" ref="V67:V130" si="4">J67/SUM(J67:L67)</f>
+        <f t="shared" ref="V67:V130" si="7">J67/SUM(J67:L67)</f>
         <v>0</v>
       </c>
       <c r="W67">
-        <f t="shared" ref="W67:W130" si="5">M67/SUM(M67:O67)</f>
+        <f t="shared" ref="W67:W130" si="8">M67/SUM(M67:O67)</f>
         <v>1.7234841956499259E-5</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X130" si="6">P67/SUM(P67:R67)</f>
+        <f t="shared" ref="X67:X130" si="9">P67/SUM(P67:R67)</f>
         <v>0</v>
       </c>
       <c r="Y67">
-        <f t="shared" ref="Y67:Y130" si="7">S67/SUM(S67:U67)</f>
+        <f t="shared" ref="Y67:Y130" si="10">S67/SUM(S67:U67)</f>
         <v>0</v>
       </c>
       <c r="Z67">
-        <f>SUM(L67,O67,R67,U67)/SUM(J67:U67)</f>
+        <f t="shared" si="6"/>
         <v>0.99206548179668386</v>
       </c>
       <c r="AB67" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>0</v>
       </c>
@@ -7002,27 +6847,27 @@
         <v>75150</v>
       </c>
       <c r="V68" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.6717822664284767E-2</v>
       </c>
       <c r="W68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5.0337437240199776E-2</v>
       </c>
       <c r="X68">
+        <f t="shared" si="9"/>
+        <v>0.12763083849184018</v>
+      </c>
+      <c r="Y68">
+        <f t="shared" si="10"/>
+        <v>9.904526608210111E-2</v>
+      </c>
+      <c r="Z68">
         <f t="shared" si="6"/>
-        <v>0.12763083849184018</v>
-      </c>
-      <c r="Y68">
-        <f t="shared" si="7"/>
-        <v>9.904526608210111E-2</v>
-      </c>
-      <c r="Z68">
-        <f>SUM(L68,O68,R68,U68)/SUM(J68:U68)</f>
         <v>9.7150105578947765E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>0</v>
       </c>
@@ -7087,27 +6932,27 @@
         <v>43432</v>
       </c>
       <c r="V69" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.066617457095405E-2</v>
       </c>
       <c r="W69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1246349094159591E-2</v>
       </c>
       <c r="X69">
+        <f t="shared" si="9"/>
+        <v>2.7708457120221824E-2</v>
+      </c>
+      <c r="Y69">
+        <f t="shared" si="10"/>
+        <v>2.5977619281849485E-2</v>
+      </c>
+      <c r="Z69">
         <f t="shared" si="6"/>
-        <v>2.7708457120221824E-2</v>
-      </c>
-      <c r="Y69">
-        <f t="shared" si="7"/>
-        <v>2.5977619281849485E-2</v>
-      </c>
-      <c r="Z69">
-        <f>SUM(L69,O69,R69,U69)/SUM(J69:U69)</f>
         <v>0.60186171458915771</v>
       </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>0</v>
       </c>
@@ -7172,27 +7017,27 @@
         <v>13918</v>
       </c>
       <c r="V70" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.13942798774259449</v>
       </c>
       <c r="W70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9.9541682414125334E-4</v>
       </c>
       <c r="X70">
+        <f t="shared" si="9"/>
+        <v>4.9426650850138396E-5</v>
+      </c>
+      <c r="Y70">
+        <f t="shared" si="10"/>
+        <v>1.2759856002174876E-3</v>
+      </c>
+      <c r="Z70">
         <f t="shared" si="6"/>
-        <v>4.9426650850138396E-5</v>
-      </c>
-      <c r="Y70">
-        <f t="shared" si="7"/>
-        <v>1.2759856002174876E-3</v>
-      </c>
-      <c r="Z70">
-        <f>SUM(L70,O70,R70,U70)/SUM(J70:U70)</f>
         <v>9.5180448982960769E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>0</v>
       </c>
@@ -7257,27 +7102,27 @@
         <v>313132</v>
       </c>
       <c r="V71" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.4424017318491005E-2</v>
       </c>
       <c r="W71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.054288689694103E-2</v>
       </c>
       <c r="X71">
+        <f t="shared" si="9"/>
+        <v>8.0333578211302485E-3</v>
+      </c>
+      <c r="Y71">
+        <f t="shared" si="10"/>
+        <v>7.7901087088201515E-3</v>
+      </c>
+      <c r="Z71">
         <f t="shared" si="6"/>
-        <v>8.0333578211302485E-3</v>
-      </c>
-      <c r="Y71">
-        <f t="shared" si="7"/>
-        <v>7.7901087088201515E-3</v>
-      </c>
-      <c r="Z71">
-        <f>SUM(L71,O71,R71,U71)/SUM(J71:U71)</f>
         <v>0.50705304156554232</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>0</v>
       </c>
@@ -7342,27 +7187,27 @@
         <v>112685</v>
       </c>
       <c r="V72" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.9460474446595601E-2</v>
       </c>
       <c r="W72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.1383805652849844E-3</v>
       </c>
       <c r="X72">
+        <f t="shared" si="9"/>
+        <v>3.2599837000814994E-3</v>
+      </c>
+      <c r="Y72">
+        <f t="shared" si="10"/>
+        <v>1.0850852939642131E-2</v>
+      </c>
+      <c r="Z72">
         <f t="shared" si="6"/>
-        <v>3.2599837000814994E-3</v>
-      </c>
-      <c r="Y72">
-        <f t="shared" si="7"/>
-        <v>1.0850852939642131E-2</v>
-      </c>
-      <c r="Z72">
-        <f>SUM(L72,O72,R72,U72)/SUM(J72:U72)</f>
         <v>0.70802850739155143</v>
       </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>0</v>
       </c>
@@ -7427,27 +7272,27 @@
         <v>34610</v>
       </c>
       <c r="V73" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.19938842512250265</v>
       </c>
       <c r="W73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.14462192295788576</v>
       </c>
       <c r="X73">
+        <f t="shared" si="9"/>
+        <v>0.17354172004441029</v>
+      </c>
+      <c r="Y73">
+        <f t="shared" si="10"/>
+        <v>0.24853591912024112</v>
+      </c>
+      <c r="Z73">
         <f t="shared" si="6"/>
-        <v>0.17354172004441029</v>
-      </c>
-      <c r="Y73">
-        <f t="shared" si="7"/>
-        <v>0.24853591912024112</v>
-      </c>
-      <c r="Z73">
-        <f>SUM(L73,O73,R73,U73)/SUM(J73:U73)</f>
         <v>0.12838293944004758</v>
       </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>0</v>
       </c>
@@ -7512,27 +7357,27 @@
         <v>144756</v>
       </c>
       <c r="V74" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.3162511400711284E-3</v>
       </c>
       <c r="W74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5.5298706578094095E-3</v>
       </c>
       <c r="X74">
+        <f t="shared" si="9"/>
+        <v>2.55729794933655E-2</v>
+      </c>
+      <c r="Y74">
+        <f t="shared" si="10"/>
+        <v>4.443795277415708E-3</v>
+      </c>
+      <c r="Z74">
         <f t="shared" si="6"/>
-        <v>2.55729794933655E-2</v>
-      </c>
-      <c r="Y74">
-        <f t="shared" si="7"/>
-        <v>4.443795277415708E-3</v>
-      </c>
-      <c r="Z74">
-        <f>SUM(L74,O74,R74,U74)/SUM(J74:U74)</f>
         <v>0.16856224813887691</v>
       </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>0</v>
       </c>
@@ -7597,27 +7442,27 @@
         <v>1107277</v>
       </c>
       <c r="V75" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.3360436735726298E-3</v>
       </c>
       <c r="W75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.6770992017225928E-4</v>
       </c>
       <c r="X75">
+        <f t="shared" si="9"/>
+        <v>2.1559274275250485E-3</v>
+      </c>
+      <c r="Y75">
+        <f t="shared" si="10"/>
+        <v>3.7002268122514562E-3</v>
+      </c>
+      <c r="Z75">
         <f t="shared" si="6"/>
-        <v>2.1559274275250485E-3</v>
-      </c>
-      <c r="Y75">
-        <f t="shared" si="7"/>
-        <v>3.7002268122514562E-3</v>
-      </c>
-      <c r="Z75">
-        <f>SUM(L75,O75,R75,U75)/SUM(J75:U75)</f>
         <v>0.32571247691952515</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>0</v>
       </c>
@@ -7682,27 +7527,27 @@
         <v>12543</v>
       </c>
       <c r="V76" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.3288916026147546E-2</v>
       </c>
       <c r="W76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0681361155362879E-2</v>
       </c>
       <c r="X76">
+        <f t="shared" si="9"/>
+        <v>1.6965950732235308E-2</v>
+      </c>
+      <c r="Y76">
+        <f t="shared" si="10"/>
+        <v>3.9774600134988777E-2</v>
+      </c>
+      <c r="Z76">
         <f t="shared" si="6"/>
-        <v>1.6965950732235308E-2</v>
-      </c>
-      <c r="Y76">
-        <f t="shared" si="7"/>
-        <v>3.9774600134988777E-2</v>
-      </c>
-      <c r="Z76">
-        <f>SUM(L76,O76,R76,U76)/SUM(J76:U76)</f>
         <v>0.11995536245493633</v>
       </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>0</v>
       </c>
@@ -7767,27 +7612,27 @@
         <v>15237</v>
       </c>
       <c r="V77" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6.459583005136698E-3</v>
       </c>
       <c r="W77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5.1622480613665728E-3</v>
       </c>
       <c r="X77">
+        <f t="shared" si="9"/>
+        <v>1.3694351513805405E-2</v>
+      </c>
+      <c r="Y77">
+        <f t="shared" si="10"/>
+        <v>1.2815104131226666E-2</v>
+      </c>
+      <c r="Z77">
         <f t="shared" si="6"/>
-        <v>1.3694351513805405E-2</v>
-      </c>
-      <c r="Y77">
-        <f t="shared" si="7"/>
-        <v>1.2815104131226666E-2</v>
-      </c>
-      <c r="Z77">
-        <f>SUM(L77,O77,R77,U77)/SUM(J77:U77)</f>
         <v>8.5783251598582702E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>0</v>
       </c>
@@ -7852,27 +7697,27 @@
         <v>10315</v>
       </c>
       <c r="V78" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6.1763723947155055E-2</v>
       </c>
       <c r="W78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5.8811935827190666E-2</v>
       </c>
       <c r="X78">
+        <f t="shared" si="9"/>
+        <v>0.17280334728033472</v>
+      </c>
+      <c r="Y78">
+        <f t="shared" si="10"/>
+        <v>0.17896877070340164</v>
+      </c>
+      <c r="Z78">
         <f t="shared" si="6"/>
-        <v>0.17280334728033472</v>
-      </c>
-      <c r="Y78">
-        <f t="shared" si="7"/>
-        <v>0.17896877070340164</v>
-      </c>
-      <c r="Z78">
-        <f>SUM(L78,O78,R78,U78)/SUM(J78:U78)</f>
         <v>0.24441060684839933</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>0</v>
       </c>
@@ -7919,30 +7764,30 @@
         <v>62538</v>
       </c>
       <c r="V79" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X79">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z79">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Y79">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z79">
-        <f>SUM(L79,O79,R79,U79)/SUM(J79:U79)</f>
         <v>0.96421949041961408</v>
       </c>
       <c r="AB79" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>0</v>
       </c>
@@ -8007,27 +7852,27 @@
         <v>1628</v>
       </c>
       <c r="V80" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.8093303629930549E-2</v>
       </c>
       <c r="W80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>7.1343994963953298E-3</v>
       </c>
       <c r="X80">
+        <f t="shared" si="9"/>
+        <v>7.3842387978513635E-3</v>
+      </c>
+      <c r="Y80">
+        <f t="shared" si="10"/>
+        <v>3.745597063055018E-2</v>
+      </c>
+      <c r="Z80">
         <f t="shared" si="6"/>
-        <v>7.3842387978513635E-3</v>
-      </c>
-      <c r="Y80">
-        <f t="shared" si="7"/>
-        <v>3.745597063055018E-2</v>
-      </c>
-      <c r="Z80">
-        <f>SUM(L80,O80,R80,U80)/SUM(J80:U80)</f>
         <v>9.2831567742339458E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>0</v>
       </c>
@@ -8092,27 +7937,27 @@
         <v>56333</v>
       </c>
       <c r="V81" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.0452085878861933E-2</v>
       </c>
       <c r="W81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0185747545298108E-3</v>
       </c>
       <c r="X81">
+        <f t="shared" si="9"/>
+        <v>4.0247001598380922E-5</v>
+      </c>
+      <c r="Y81">
+        <f t="shared" si="10"/>
+        <v>6.2371435580969633E-3</v>
+      </c>
+      <c r="Z81">
         <f t="shared" si="6"/>
-        <v>4.0247001598380922E-5</v>
-      </c>
-      <c r="Y81">
-        <f t="shared" si="7"/>
-        <v>6.2371435580969633E-3</v>
-      </c>
-      <c r="Z81">
-        <f>SUM(L81,O81,R81,U81)/SUM(J81:U81)</f>
         <v>0.1397260383877878</v>
       </c>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>0</v>
       </c>
@@ -8177,27 +8022,27 @@
         <v>6005</v>
       </c>
       <c r="V82" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.480861099352966E-2</v>
       </c>
       <c r="W82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2470390463819057E-2</v>
       </c>
       <c r="X82">
+        <f t="shared" si="9"/>
+        <v>3.9109506618531893E-3</v>
+      </c>
+      <c r="Y82">
+        <f t="shared" si="10"/>
+        <v>2.3709846228161982E-2</v>
+      </c>
+      <c r="Z82">
         <f t="shared" si="6"/>
-        <v>3.9109506618531893E-3</v>
-      </c>
-      <c r="Y82">
-        <f t="shared" si="7"/>
-        <v>2.3709846228161982E-2</v>
-      </c>
-      <c r="Z82">
-        <f>SUM(L82,O82,R82,U82)/SUM(J82:U82)</f>
         <v>0.10910766518411669</v>
       </c>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>0</v>
       </c>
@@ -8262,27 +8107,27 @@
         <v>2364</v>
       </c>
       <c r="V83" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.81824488380159555</v>
       </c>
       <c r="W83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.46458100558659216</v>
       </c>
       <c r="X83">
+        <f t="shared" si="9"/>
+        <v>0.41023211747986738</v>
+      </c>
+      <c r="Y83">
+        <f t="shared" si="10"/>
+        <v>0.76646309081253317</v>
+      </c>
+      <c r="Z83">
         <f t="shared" si="6"/>
-        <v>0.41023211747986738</v>
-      </c>
-      <c r="Y83">
-        <f t="shared" si="7"/>
-        <v>0.76646309081253317</v>
-      </c>
-      <c r="Z83">
-        <f>SUM(L83,O83,R83,U83)/SUM(J83:U83)</f>
         <v>0.16459354546227298</v>
       </c>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>0</v>
       </c>
@@ -8347,27 +8192,27 @@
         <v>1240</v>
       </c>
       <c r="V84" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.59407216494845361</v>
       </c>
       <c r="W84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9.0446135393932247E-4</v>
       </c>
       <c r="X84">
+        <f t="shared" si="9"/>
+        <v>3.8590519852892938E-6</v>
+      </c>
+      <c r="Y84">
+        <f t="shared" si="10"/>
+        <v>6.5697041654299002E-2</v>
+      </c>
+      <c r="Z84">
         <f t="shared" si="6"/>
-        <v>3.8590519852892938E-6</v>
-      </c>
-      <c r="Y84">
-        <f t="shared" si="7"/>
-        <v>6.5697041654299002E-2</v>
-      </c>
-      <c r="Z84">
-        <f>SUM(L84,O84,R84,U84)/SUM(J84:U84)</f>
         <v>0.1039646842348789</v>
       </c>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>0</v>
       </c>
@@ -8432,30 +8277,30 @@
         <v>201366</v>
       </c>
       <c r="V85" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X85">
+        <f t="shared" si="9"/>
+        <v>6.6083807484652034E-6</v>
+      </c>
+      <c r="Y85">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z85">
         <f t="shared" si="6"/>
-        <v>6.6083807484652034E-6</v>
-      </c>
-      <c r="Y85">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z85">
-        <f>SUM(L85,O85,R85,U85)/SUM(J85:U85)</f>
         <v>0.99431646615936509</v>
       </c>
       <c r="AB85" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>0</v>
       </c>
@@ -8520,27 +8365,27 @@
         <v>169766</v>
       </c>
       <c r="V86" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.2861420950715975E-2</v>
       </c>
       <c r="W86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.9242757953019291E-3</v>
       </c>
       <c r="X86">
+        <f t="shared" si="9"/>
+        <v>1.7789718805732924E-2</v>
+      </c>
+      <c r="Y86">
+        <f t="shared" si="10"/>
+        <v>2.4117229895597645E-2</v>
+      </c>
+      <c r="Z86">
         <f t="shared" si="6"/>
-        <v>1.7789718805732924E-2</v>
-      </c>
-      <c r="Y86">
-        <f t="shared" si="7"/>
-        <v>2.4117229895597645E-2</v>
-      </c>
-      <c r="Z86">
-        <f>SUM(L86,O86,R86,U86)/SUM(J86:U86)</f>
         <v>7.7431007373414323E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>0</v>
       </c>
@@ -8605,27 +8450,27 @@
         <v>31719</v>
       </c>
       <c r="V87" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.33040830771915874</v>
       </c>
       <c r="W87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.32472272349398812</v>
       </c>
       <c r="X87">
+        <f t="shared" si="9"/>
+        <v>0.43707926733809949</v>
+      </c>
+      <c r="Y87">
+        <f t="shared" si="10"/>
+        <v>0.42567262039339815</v>
+      </c>
+      <c r="Z87">
         <f t="shared" si="6"/>
-        <v>0.43707926733809949</v>
-      </c>
-      <c r="Y87">
-        <f t="shared" si="7"/>
-        <v>0.42567262039339815</v>
-      </c>
-      <c r="Z87">
-        <f>SUM(L87,O87,R87,U87)/SUM(J87:U87)</f>
         <v>0.30679581356042385</v>
       </c>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>0</v>
       </c>
@@ -8690,27 +8535,27 @@
         <v>123817</v>
       </c>
       <c r="V88" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.1710739851922276E-2</v>
       </c>
       <c r="W88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.6387362013804046E-2</v>
       </c>
       <c r="X88">
+        <f t="shared" si="9"/>
+        <v>4.643538164881994E-2</v>
+      </c>
+      <c r="Y88">
+        <f t="shared" si="10"/>
+        <v>2.9375843797067293E-2</v>
+      </c>
+      <c r="Z88">
         <f t="shared" si="6"/>
-        <v>4.643538164881994E-2</v>
-      </c>
-      <c r="Y88">
-        <f t="shared" si="7"/>
-        <v>2.9375843797067293E-2</v>
-      </c>
-      <c r="Z88">
-        <f>SUM(L88,O88,R88,U88)/SUM(J88:U88)</f>
         <v>9.6871004404034664E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>0</v>
       </c>
@@ -8775,27 +8620,27 @@
         <v>137840</v>
       </c>
       <c r="V89" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.3499197880676169E-2</v>
       </c>
       <c r="W89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.5584393461916672E-2</v>
       </c>
       <c r="X89">
+        <f t="shared" si="9"/>
+        <v>2.5927579759523534E-2</v>
+      </c>
+      <c r="Y89">
+        <f t="shared" si="10"/>
+        <v>5.3767685739808634E-2</v>
+      </c>
+      <c r="Z89">
         <f t="shared" si="6"/>
-        <v>2.5927579759523534E-2</v>
-      </c>
-      <c r="Y89">
-        <f t="shared" si="7"/>
-        <v>5.3767685739808634E-2</v>
-      </c>
-      <c r="Z89">
-        <f>SUM(L89,O89,R89,U89)/SUM(J89:U89)</f>
         <v>0.33597580230604335</v>
       </c>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>0</v>
       </c>
@@ -8860,30 +8705,30 @@
         <v>738765</v>
       </c>
       <c r="V90" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.0455725625488282E-4</v>
       </c>
       <c r="W90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.3235800950743052E-4</v>
       </c>
       <c r="X90">
+        <f t="shared" si="9"/>
+        <v>2.4884907303720296E-4</v>
+      </c>
+      <c r="Y90">
+        <f t="shared" si="10"/>
+        <v>6.6147765179491757E-4</v>
+      </c>
+      <c r="Z90">
         <f t="shared" si="6"/>
-        <v>2.4884907303720296E-4</v>
-      </c>
-      <c r="Y90">
-        <f t="shared" si="7"/>
-        <v>6.6147765179491757E-4</v>
-      </c>
-      <c r="Z90">
-        <f>SUM(L90,O90,R90,U90)/SUM(J90:U90)</f>
         <v>0.99968746383660945</v>
       </c>
       <c r="AB90" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>0</v>
       </c>
@@ -8948,27 +8793,27 @@
         <v>26371</v>
       </c>
       <c r="V91" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0939962970204775E-2</v>
       </c>
       <c r="W91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0651826655155835E-2</v>
       </c>
       <c r="X91">
+        <f t="shared" si="9"/>
+        <v>1.9572722515479413E-2</v>
+      </c>
+      <c r="Y91">
+        <f t="shared" si="10"/>
+        <v>2.3801107576293154E-2</v>
+      </c>
+      <c r="Z91">
         <f t="shared" si="6"/>
-        <v>1.9572722515479413E-2</v>
-      </c>
-      <c r="Y91">
-        <f t="shared" si="7"/>
-        <v>2.3801107576293154E-2</v>
-      </c>
-      <c r="Z91">
-        <f>SUM(L91,O91,R91,U91)/SUM(J91:U91)</f>
         <v>9.9958211151550652E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>0</v>
       </c>
@@ -9033,27 +8878,27 @@
         <v>16877</v>
       </c>
       <c r="V92" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.660098883884864E-2</v>
       </c>
       <c r="W92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.403480240689543E-2</v>
       </c>
       <c r="X92">
+        <f t="shared" si="9"/>
+        <v>5.0780400852136864E-2</v>
+      </c>
+      <c r="Y92">
+        <f t="shared" si="10"/>
+        <v>3.790778920434975E-2</v>
+      </c>
+      <c r="Z92">
         <f t="shared" si="6"/>
-        <v>5.0780400852136864E-2</v>
-      </c>
-      <c r="Y92">
-        <f t="shared" si="7"/>
-        <v>3.790778920434975E-2</v>
-      </c>
-      <c r="Z92">
-        <f>SUM(L92,O92,R92,U92)/SUM(J92:U92)</f>
         <v>0.10202025285434836</v>
       </c>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>0</v>
       </c>
@@ -9118,27 +8963,27 @@
         <v>10030</v>
       </c>
       <c r="V93" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.50430410604098419</v>
       </c>
       <c r="W93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.1127890336672441</v>
       </c>
       <c r="X93">
+        <f t="shared" si="9"/>
+        <v>0.13318520454842503</v>
+      </c>
+      <c r="Y93">
+        <f t="shared" si="10"/>
+        <v>0.61465115907018419</v>
+      </c>
+      <c r="Z93">
         <f t="shared" si="6"/>
-        <v>0.13318520454842503</v>
-      </c>
-      <c r="Y93">
-        <f t="shared" si="7"/>
-        <v>0.61465115907018419</v>
-      </c>
-      <c r="Z93">
-        <f>SUM(L93,O93,R93,U93)/SUM(J93:U93)</f>
         <v>0.16575402719431889</v>
       </c>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>0</v>
       </c>
@@ -9185,30 +9030,30 @@
         <v>21251</v>
       </c>
       <c r="V94" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.1388319672131149E-2</v>
       </c>
       <c r="W94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.5428786089943114E-4</v>
       </c>
       <c r="X94">
+        <f t="shared" si="9"/>
+        <v>1.7052860978718608E-4</v>
+      </c>
+      <c r="Y94">
+        <f t="shared" si="10"/>
+        <v>1.9995418398402985E-2</v>
+      </c>
+      <c r="Z94">
         <f t="shared" si="6"/>
-        <v>1.7052860978718608E-4</v>
-      </c>
-      <c r="Y94">
-        <f t="shared" si="7"/>
-        <v>1.9995418398402985E-2</v>
-      </c>
-      <c r="Z94">
-        <f>SUM(L94,O94,R94,U94)/SUM(J94:U94)</f>
         <v>0.91195680701885939</v>
       </c>
       <c r="AB94" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>0</v>
       </c>
@@ -9273,27 +9118,27 @@
         <v>26338</v>
       </c>
       <c r="V95" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.5008903586873569E-2</v>
       </c>
       <c r="W95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5.7855151738284332E-3</v>
       </c>
       <c r="X95">
+        <f t="shared" si="9"/>
+        <v>2.7995520716685331E-4</v>
+      </c>
+      <c r="Y95">
+        <f t="shared" si="10"/>
+        <v>2.4043684187656611E-3</v>
+      </c>
+      <c r="Z95">
         <f t="shared" si="6"/>
-        <v>2.7995520716685331E-4</v>
-      </c>
-      <c r="Y95">
-        <f t="shared" si="7"/>
-        <v>2.4043684187656611E-3</v>
-      </c>
-      <c r="Z95">
-        <f>SUM(L95,O95,R95,U95)/SUM(J95:U95)</f>
         <v>0.45599308535075495</v>
       </c>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>0</v>
       </c>
@@ -9358,30 +9203,30 @@
         <v>95818</v>
       </c>
       <c r="V96" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>9.8557771280265443E-5</v>
       </c>
       <c r="W96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.8158707100054475E-5</v>
       </c>
       <c r="X96">
+        <f t="shared" si="9"/>
+        <v>4.2216740746995071E-5</v>
+      </c>
+      <c r="Y96">
+        <f t="shared" si="10"/>
+        <v>6.1876720946301317E-5</v>
+      </c>
+      <c r="Z96">
         <f t="shared" si="6"/>
-        <v>4.2216740746995071E-5</v>
-      </c>
-      <c r="Y96">
-        <f t="shared" si="7"/>
-        <v>6.1876720946301317E-5</v>
-      </c>
-      <c r="Z96">
-        <f>SUM(L96,O96,R96,U96)/SUM(J96:U96)</f>
         <v>0.98746059156223764</v>
       </c>
       <c r="AB96" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>0</v>
       </c>
@@ -9446,27 +9291,27 @@
         <v>8185</v>
       </c>
       <c r="V97" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.87893134934054784</v>
       </c>
       <c r="W97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.1348406043236743E-2</v>
       </c>
       <c r="X97">
+        <f t="shared" si="9"/>
+        <v>1.3316717475488177E-2</v>
+      </c>
+      <c r="Y97">
+        <f t="shared" si="10"/>
+        <v>0.13705029796208648</v>
+      </c>
+      <c r="Z97">
         <f t="shared" si="6"/>
-        <v>1.3316717475488177E-2</v>
-      </c>
-      <c r="Y97">
-        <f t="shared" si="7"/>
-        <v>0.13705029796208648</v>
-      </c>
-      <c r="Z97">
-        <f>SUM(L97,O97,R97,U97)/SUM(J97:U97)</f>
         <v>0.12888860099431587</v>
       </c>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>0</v>
       </c>
@@ -9513,30 +9358,30 @@
         <v>33073</v>
       </c>
       <c r="V98" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z98">
-        <f>SUM(L98,O98,R98,U98)/SUM(J98:U98)</f>
+        <f t="shared" ref="Z98:Z129" si="11">SUM(L98,O98,R98,U98)/SUM(J98:U98)</f>
         <v>0.9998913804339955</v>
       </c>
       <c r="AB98" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>0</v>
       </c>
@@ -9583,27 +9428,27 @@
         <v>10868</v>
       </c>
       <c r="V99" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.8015267175572517E-2</v>
       </c>
       <c r="W99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0915947206509874E-2</v>
       </c>
       <c r="X99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.4024024024024023E-3</v>
       </c>
       <c r="Y99">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.9078416403097397E-3</v>
       </c>
       <c r="Z99">
-        <f>SUM(L99,O99,R99,U99)/SUM(J99:U99)</f>
+        <f t="shared" si="11"/>
         <v>0.2936343927887724</v>
       </c>
     </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>0</v>
       </c>
@@ -9668,27 +9513,27 @@
         <v>2598</v>
       </c>
       <c r="V100" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.74555615927967089</v>
       </c>
       <c r="W100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.69403065051977275</v>
       </c>
       <c r="X100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.73908741066520067</v>
       </c>
       <c r="Y100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.79733312538989398</v>
       </c>
       <c r="Z100">
-        <f>SUM(L100,O100,R100,U100)/SUM(J100:U100)</f>
+        <f t="shared" si="11"/>
         <v>0.25146715609634512</v>
       </c>
     </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>0</v>
       </c>
@@ -9735,30 +9580,30 @@
         <v>19611</v>
       </c>
       <c r="V101" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1546474003811888E-2</v>
       </c>
       <c r="W101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9.8404742986370024E-3</v>
       </c>
       <c r="X101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2145177234853834E-3</v>
       </c>
       <c r="Y101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.4437886114505E-2</v>
       </c>
       <c r="Z101">
-        <f>SUM(L101,O101,R101,U101)/SUM(J101:U101)</f>
+        <f t="shared" si="11"/>
         <v>0.45925457583597312</v>
       </c>
       <c r="AB101" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>0</v>
       </c>
@@ -9823,27 +9668,27 @@
         <v>10151</v>
       </c>
       <c r="V102" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.70904553961322525</v>
       </c>
       <c r="W102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.7557825310310079E-2</v>
       </c>
       <c r="X102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5.5382380534455102E-3</v>
       </c>
       <c r="Y102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.2066335531851368E-2</v>
       </c>
       <c r="Z102">
-        <f>SUM(L102,O102,R102,U102)/SUM(J102:U102)</f>
+        <f t="shared" si="11"/>
         <v>0.14773590390367863</v>
       </c>
     </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>0</v>
       </c>
@@ -9908,27 +9753,27 @@
         <v>56466</v>
       </c>
       <c r="V103" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.8956845927045004E-3</v>
       </c>
       <c r="W103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9.9272214529152526E-4</v>
       </c>
       <c r="X103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3.8016406648144801E-4</v>
       </c>
       <c r="Y103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1678207806306233E-3</v>
       </c>
       <c r="Z103">
-        <f>SUM(L103,O103,R103,U103)/SUM(J103:U103)</f>
+        <f t="shared" si="11"/>
         <v>0.13366037134861555</v>
       </c>
     </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>0</v>
       </c>
@@ -9993,27 +9838,27 @@
         <v>5326</v>
       </c>
       <c r="V104" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.54809190031152644</v>
       </c>
       <c r="W104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>7.1679817473143835E-3</v>
       </c>
       <c r="X104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6.4464555495255E-3</v>
       </c>
       <c r="Y104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.15682457847804929</v>
       </c>
       <c r="Z104">
-        <f>SUM(L104,O104,R104,U104)/SUM(J104:U104)</f>
+        <f t="shared" si="11"/>
         <v>0.12832797694579179</v>
       </c>
     </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>0</v>
       </c>
@@ -10078,27 +9923,27 @@
         <v>27525</v>
       </c>
       <c r="V105" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.5296914299736214E-2</v>
       </c>
       <c r="W105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.9078290094883119E-3</v>
       </c>
       <c r="X105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.124753376840188E-3</v>
       </c>
       <c r="Y105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.1424282542296907E-2</v>
       </c>
       <c r="Z105">
-        <f>SUM(L105,O105,R105,U105)/SUM(J105:U105)</f>
+        <f t="shared" si="11"/>
         <v>8.3373819843575767E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>0</v>
       </c>
@@ -10145,30 +9990,30 @@
         <v>9331</v>
       </c>
       <c r="V106" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z106">
-        <f>SUM(L106,O106,R106,U106)/SUM(J106:U106)</f>
+        <f t="shared" si="11"/>
         <v>0.96864791067336287</v>
       </c>
       <c r="AB106" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>0</v>
       </c>
@@ -10233,27 +10078,27 @@
         <v>22567</v>
       </c>
       <c r="V107" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.21659954473822449</v>
       </c>
       <c r="W107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5.054483392411711E-3</v>
       </c>
       <c r="X107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.4641623972539953E-3</v>
       </c>
       <c r="Y107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.3190041371881808E-2</v>
       </c>
       <c r="Z107">
-        <f>SUM(L107,O107,R107,U107)/SUM(J107:U107)</f>
+        <f t="shared" si="11"/>
         <v>0.14881607093034069</v>
       </c>
     </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>0</v>
       </c>
@@ -10300,30 +10145,30 @@
         <v>73832</v>
       </c>
       <c r="V108" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.10955914447839371</v>
       </c>
       <c r="W108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.520607670822263E-3</v>
       </c>
       <c r="X108">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.3449637019160307E-4</v>
       </c>
       <c r="Y108">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.8142440838634329E-4</v>
       </c>
       <c r="Z108">
-        <f>SUM(L108,O108,R108,U108)/SUM(J108:U108)</f>
+        <f t="shared" si="11"/>
         <v>0.76437865401666161</v>
       </c>
       <c r="AB108" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>0</v>
       </c>
@@ -10370,30 +10215,30 @@
         <v>19611</v>
       </c>
       <c r="V109" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.29206625980819528</v>
       </c>
       <c r="W109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1040661177880824E-3</v>
       </c>
       <c r="X109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3.6787765860585404E-6</v>
       </c>
       <c r="Y109">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.2713169835683954E-3</v>
       </c>
       <c r="Z109">
-        <f>SUM(L109,O109,R109,U109)/SUM(J109:U109)</f>
+        <f t="shared" si="11"/>
         <v>5.898931950786547E-2</v>
       </c>
       <c r="AB109" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>0</v>
       </c>
@@ -10458,27 +10303,27 @@
         <v>10355</v>
       </c>
       <c r="V110" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.9299311584870018E-2</v>
       </c>
       <c r="W110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.3466608672376871E-2</v>
       </c>
       <c r="X110">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>7.248531707679727E-2</v>
       </c>
       <c r="Y110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.3248700356892588E-2</v>
       </c>
       <c r="Z110">
-        <f>SUM(L110,O110,R110,U110)/SUM(J110:U110)</f>
+        <f t="shared" si="11"/>
         <v>0.11420893516963386</v>
       </c>
     </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>0</v>
       </c>
@@ -10543,27 +10388,27 @@
         <v>4448</v>
       </c>
       <c r="V111" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6.5230903101497914E-2</v>
       </c>
       <c r="W111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.0073805781452879E-2</v>
       </c>
       <c r="X111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>7.0724269377382465E-2</v>
       </c>
       <c r="Y111">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.1189107971320118</v>
       </c>
       <c r="Z111">
-        <f>SUM(L111,O111,R111,U111)/SUM(J111:U111)</f>
+        <f t="shared" si="11"/>
         <v>0.13554027568933974</v>
       </c>
     </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>0</v>
       </c>
@@ -10628,27 +10473,27 @@
         <v>21635</v>
       </c>
       <c r="V112" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.2031407139496046E-2</v>
       </c>
       <c r="W112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0546702975725058E-2</v>
       </c>
       <c r="X112">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1241223578188818E-2</v>
       </c>
       <c r="Y112">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1959933588782756E-2</v>
       </c>
       <c r="Z112">
-        <f>SUM(L112,O112,R112,U112)/SUM(J112:U112)</f>
+        <f t="shared" si="11"/>
         <v>0.11223390355916854</v>
       </c>
     </row>
-    <row r="113" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>0</v>
       </c>
@@ -10695,27 +10540,27 @@
         <v>8373</v>
       </c>
       <c r="V113" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.49119761963798664</v>
       </c>
       <c r="W113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.6387442899812884E-4</v>
       </c>
       <c r="X113">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.3685095015614693E-5</v>
       </c>
       <c r="Y113">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6.9912346854253465E-3</v>
       </c>
       <c r="Z113">
-        <f>SUM(L113,O113,R113,U113)/SUM(J113:U113)</f>
+        <f t="shared" si="11"/>
         <v>7.5351250761712243E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>0</v>
       </c>
@@ -10762,30 +10607,30 @@
         <v>25783</v>
       </c>
       <c r="V114" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.2384165672900728E-2</v>
       </c>
       <c r="W114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1521500777136522E-2</v>
       </c>
       <c r="X114">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.5573339512169038E-2</v>
       </c>
       <c r="Y114">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.6059316902632035E-2</v>
       </c>
       <c r="Z114">
-        <f>SUM(L114,O114,R114,U114)/SUM(J114:U114)</f>
+        <f t="shared" si="11"/>
         <v>0.13678717203706203</v>
       </c>
       <c r="AB114" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="115" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>0</v>
       </c>
@@ -10832,30 +10677,30 @@
         <v>27858</v>
       </c>
       <c r="V115" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6.1020750720154806E-3</v>
       </c>
       <c r="W115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.2146705421504384E-3</v>
       </c>
       <c r="X115">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.9986567241817186E-3</v>
       </c>
       <c r="Y115">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8.0791775068175409E-3</v>
       </c>
       <c r="Z115">
-        <f>SUM(L115,O115,R115,U115)/SUM(J115:U115)</f>
+        <f t="shared" si="11"/>
         <v>0.11879422486436034</v>
       </c>
       <c r="AB115" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="116" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>0</v>
       </c>
@@ -10902,30 +10747,30 @@
         <v>4791</v>
       </c>
       <c r="V116" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.2636986301369863</v>
       </c>
       <c r="W116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.6496827895664634E-5</v>
       </c>
       <c r="X116">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>7.4092368486045935E-6</v>
       </c>
       <c r="Y116">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.0578491496491114E-4</v>
       </c>
       <c r="Z116">
-        <f>SUM(L116,O116,R116,U116)/SUM(J116:U116)</f>
+        <f t="shared" si="11"/>
         <v>6.9806358536891336E-2</v>
       </c>
       <c r="AB116" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="117" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>0</v>
       </c>
@@ -10990,27 +10835,27 @@
         <v>7756</v>
       </c>
       <c r="V117" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.16373626373626374</v>
       </c>
       <c r="W117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.2693249479744495E-4</v>
       </c>
       <c r="X117">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6.6243298386313253E-6</v>
       </c>
       <c r="Y117">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.1583375932101622E-3</v>
       </c>
       <c r="Z117">
-        <f>SUM(L117,O117,R117,U117)/SUM(J117:U117)</f>
+        <f t="shared" si="11"/>
         <v>6.9931123717846308E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>0</v>
       </c>
@@ -11075,27 +10920,27 @@
         <v>5365</v>
       </c>
       <c r="V118" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.46141975308641975</v>
       </c>
       <c r="W118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5.7030136130153703E-4</v>
       </c>
       <c r="X118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.4697506935386086E-5</v>
       </c>
       <c r="Y118">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.9900360951374497E-3</v>
       </c>
       <c r="Z118">
-        <f>SUM(L118,O118,R118,U118)/SUM(J118:U118)</f>
+        <f t="shared" si="11"/>
         <v>0.10597984612853203</v>
       </c>
     </row>
-    <row r="119" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>0</v>
       </c>
@@ -11142,27 +10987,27 @@
         <v>9990</v>
       </c>
       <c r="V119" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.4890077959671495E-2</v>
       </c>
       <c r="W119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9.0245337624440102E-3</v>
       </c>
       <c r="X119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0437756766850785E-2</v>
       </c>
       <c r="Y119">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.3513249058580508E-2</v>
       </c>
       <c r="Z119">
-        <f>SUM(L119,O119,R119,U119)/SUM(J119:U119)</f>
+        <f t="shared" si="11"/>
         <v>0.11918059674357777</v>
       </c>
     </row>
-    <row r="120" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>0</v>
       </c>
@@ -11227,27 +11072,27 @@
         <v>35135</v>
       </c>
       <c r="V120" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>9.0668681526256137E-2</v>
       </c>
       <c r="W120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.6484754824559297E-2</v>
       </c>
       <c r="X120">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6.9299721578776605E-2</v>
       </c>
       <c r="Y120">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.11461575399718996</v>
       </c>
       <c r="Z120">
-        <f>SUM(L120,O120,R120,U120)/SUM(J120:U120)</f>
+        <f t="shared" si="11"/>
         <v>0.15516578627582273</v>
       </c>
     </row>
-    <row r="121" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>0</v>
       </c>
@@ -11312,27 +11157,27 @@
         <v>15603</v>
       </c>
       <c r="V121" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.4597168708602104</v>
       </c>
       <c r="W121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.1468403142760425E-2</v>
       </c>
       <c r="X121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6.4987277914238823E-3</v>
       </c>
       <c r="Y121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.7064110551634682E-2</v>
       </c>
       <c r="Z121">
-        <f>SUM(L121,O121,R121,U121)/SUM(J121:U121)</f>
+        <f t="shared" si="11"/>
         <v>0.15498892635632408</v>
       </c>
     </row>
-    <row r="122" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>0</v>
       </c>
@@ -11397,27 +11242,27 @@
         <v>9063</v>
       </c>
       <c r="V122" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.49439551641313051</v>
       </c>
       <c r="W122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5.9470596586004077E-4</v>
       </c>
       <c r="X122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9.5885975348453327E-6</v>
       </c>
       <c r="Y122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.3880114791797327E-2</v>
       </c>
       <c r="Z122">
-        <f>SUM(L122,O122,R122,U122)/SUM(J122:U122)</f>
+        <f t="shared" si="11"/>
         <v>7.4636049450108752E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>0</v>
       </c>
@@ -11482,27 +11327,27 @@
         <v>3016</v>
       </c>
       <c r="V123" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.24062740376576033</v>
       </c>
       <c r="W123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.7817916158770394E-2</v>
       </c>
       <c r="X123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>7.3464994244195614E-2</v>
       </c>
       <c r="Y123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.51062274886464476</v>
       </c>
       <c r="Z123">
-        <f>SUM(L123,O123,R123,U123)/SUM(J123:U123)</f>
+        <f t="shared" si="11"/>
         <v>0.10502701981453065</v>
       </c>
     </row>
-    <row r="124" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>0</v>
       </c>
@@ -11567,27 +11412,27 @@
         <v>7658</v>
       </c>
       <c r="V124" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.22896905823537358</v>
       </c>
       <c r="W124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.4228630618836269E-2</v>
       </c>
       <c r="X124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8.190125915456764E-2</v>
       </c>
       <c r="Y124">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.18112803262447297</v>
       </c>
       <c r="Z124">
-        <f>SUM(L124,O124,R124,U124)/SUM(J124:U124)</f>
+        <f t="shared" si="11"/>
         <v>9.6900530913392541E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>0</v>
       </c>
@@ -11652,27 +11497,27 @@
         <v>12409</v>
       </c>
       <c r="V125" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.8492520481410102E-2</v>
       </c>
       <c r="W125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.4208477373945001E-2</v>
       </c>
       <c r="X125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>7.8056755239977557E-2</v>
       </c>
       <c r="Y125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7.5807628389607237E-2</v>
       </c>
       <c r="Z125">
-        <f>SUM(L125,O125,R125,U125)/SUM(J125:U125)</f>
+        <f t="shared" si="11"/>
         <v>0.13698686677699465</v>
       </c>
     </row>
-    <row r="126" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>0</v>
       </c>
@@ -11737,27 +11582,27 @@
         <v>20824</v>
       </c>
       <c r="V126" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.18048543391731947</v>
       </c>
       <c r="W126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.22355128475093344</v>
       </c>
       <c r="X126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.4530906863817315</v>
       </c>
       <c r="Y126">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.34968285924578951</v>
       </c>
       <c r="Z126">
-        <f>SUM(L126,O126,R126,U126)/SUM(J126:U126)</f>
+        <f t="shared" si="11"/>
         <v>0.11564617372267019</v>
       </c>
     </row>
-    <row r="127" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>0</v>
       </c>
@@ -11822,27 +11667,27 @@
         <v>6082</v>
       </c>
       <c r="V127" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.17236053623277939</v>
       </c>
       <c r="W127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9.0251822804975179E-2</v>
       </c>
       <c r="X127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.23463875759621877</v>
       </c>
       <c r="Y127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.28270936528049762</v>
       </c>
       <c r="Z127">
-        <f>SUM(L127,O127,R127,U127)/SUM(J127:U127)</f>
+        <f t="shared" si="11"/>
         <v>0.14811741042354665</v>
       </c>
     </row>
-    <row r="128" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>0</v>
       </c>
@@ -11907,27 +11752,27 @@
         <v>17050</v>
       </c>
       <c r="V128" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.51898734177215189</v>
       </c>
       <c r="W128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.31989166844843558</v>
       </c>
       <c r="X128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.47403978887535525</v>
       </c>
       <c r="Y128">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.6705022128150856</v>
       </c>
       <c r="Z128">
-        <f>SUM(L128,O128,R128,U128)/SUM(J128:U128)</f>
+        <f t="shared" si="11"/>
         <v>0.16799313309055106</v>
       </c>
     </row>
-    <row r="129" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>0</v>
       </c>
@@ -11992,27 +11837,27 @@
         <v>10544</v>
       </c>
       <c r="V129" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8.9397796879332511E-2</v>
       </c>
       <c r="W129">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.2186811572918197E-2</v>
       </c>
       <c r="X129">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4.5683711457237777E-2</v>
       </c>
       <c r="Y129">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.10552364885818127</v>
       </c>
       <c r="Z129">
-        <f>SUM(L129,O129,R129,U129)/SUM(J129:U129)</f>
+        <f t="shared" si="11"/>
         <v>0.1447858916144634</v>
       </c>
     </row>
-    <row r="130" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>0</v>
       </c>
@@ -12059,30 +11904,30 @@
         <v>64981</v>
       </c>
       <c r="V130" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W130">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.510642476245147E-5</v>
       </c>
       <c r="X130">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y130">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z130">
-        <f>SUM(L130,O130,R130,U130)/SUM(J130:U130)</f>
+        <f t="shared" ref="Z130:Z145" si="12">SUM(L130,O130,R130,U130)/SUM(J130:U130)</f>
         <v>0.99999244179235336</v>
       </c>
       <c r="AB130" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="131" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>0</v>
       </c>
@@ -12147,30 +11992,30 @@
         <v>78331</v>
       </c>
       <c r="V131" s="4">
-        <f t="shared" ref="V131:V145" si="8">J131/SUM(J131:L131)</f>
+        <f t="shared" ref="V131:V145" si="13">J131/SUM(J131:L131)</f>
         <v>0.310019885436144</v>
       </c>
       <c r="W131">
-        <f t="shared" ref="W131:W145" si="9">M131/SUM(M131:O131)</f>
+        <f t="shared" ref="W131:W145" si="14">M131/SUM(M131:O131)</f>
         <v>0.32532430641037779</v>
       </c>
       <c r="X131">
-        <f t="shared" ref="X131:X145" si="10">P131/SUM(P131:R131)</f>
+        <f t="shared" ref="X131:X145" si="15">P131/SUM(P131:R131)</f>
         <v>0.3388120048650603</v>
       </c>
       <c r="Y131">
-        <f t="shared" ref="Y131:Y145" si="11">S131/SUM(S131:U131)</f>
+        <f t="shared" ref="Y131:Y145" si="16">S131/SUM(S131:U131)</f>
         <v>0.35457423625673284</v>
       </c>
       <c r="Z131">
-        <f>SUM(L131,O131,R131,U131)/SUM(J131:U131)</f>
+        <f t="shared" si="12"/>
         <v>0.66614521623222744</v>
       </c>
       <c r="AB131" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="132" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>0</v>
       </c>
@@ -12235,27 +12080,27 @@
         <v>1775</v>
       </c>
       <c r="V132" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>5.7443295385417571E-2</v>
       </c>
       <c r="W132">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1.5112102068623809E-2</v>
       </c>
       <c r="X132">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.4438331441213285E-2</v>
       </c>
       <c r="Y132">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>5.7546574044837387E-2</v>
       </c>
       <c r="Z132">
-        <f>SUM(L132,O132,R132,U132)/SUM(J132:U132)</f>
+        <f t="shared" si="12"/>
         <v>0.15164875168110989</v>
       </c>
     </row>
-    <row r="133" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>0</v>
       </c>
@@ -12320,27 +12165,27 @@
         <v>7296</v>
       </c>
       <c r="V133" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.25265315967197299</v>
       </c>
       <c r="W133">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.20789390779939693</v>
       </c>
       <c r="X133">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.24488424197162062</v>
       </c>
       <c r="Y133">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.38175618712179404</v>
       </c>
       <c r="Z133">
-        <f>SUM(L133,O133,R133,U133)/SUM(J133:U133)</f>
+        <f t="shared" si="12"/>
         <v>0.15997668796408221</v>
       </c>
     </row>
-    <row r="134" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>0</v>
       </c>
@@ -12405,30 +12250,30 @@
         <v>86267</v>
       </c>
       <c r="V134" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>4.8766335334779753E-2</v>
       </c>
       <c r="W134">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>6.173771462403789E-2</v>
       </c>
       <c r="X134">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>5.3791956313650413E-2</v>
       </c>
       <c r="Y134">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>4.1656993134556071E-2</v>
       </c>
       <c r="Z134">
-        <f>SUM(L134,O134,R134,U134)/SUM(J134:U134)</f>
+        <f t="shared" si="12"/>
         <v>0.94599290403167935</v>
       </c>
       <c r="AB134" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="135" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>0</v>
       </c>
@@ -12493,30 +12338,30 @@
         <v>8647</v>
       </c>
       <c r="V135" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.1334907626059175</v>
       </c>
       <c r="W135">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>4.8627308766926834E-4</v>
       </c>
       <c r="X135">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.5641293013555786E-5</v>
       </c>
       <c r="Y135">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>6.1544826872850459E-3</v>
       </c>
       <c r="Z135">
-        <f>SUM(L135,O135,R135,U135)/SUM(J135:U135)</f>
+        <f t="shared" si="12"/>
         <v>9.3564006373758918E-2</v>
       </c>
       <c r="AB135" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="136" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>0</v>
       </c>
@@ -12581,30 +12426,30 @@
         <v>26285</v>
       </c>
       <c r="V136" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>7.4487895716945996E-3</v>
       </c>
       <c r="W136">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>7.3089301290341982E-3</v>
       </c>
       <c r="X136">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.5902863589964004E-2</v>
       </c>
       <c r="Y136">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1.3553154357431955E-2</v>
       </c>
       <c r="Z136">
-        <f>SUM(L136,O136,R136,U136)/SUM(J136:U136)</f>
+        <f t="shared" si="12"/>
         <v>0.97810313313516606</v>
       </c>
       <c r="AB136" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="137" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>0</v>
       </c>
@@ -12669,30 +12514,30 @@
         <v>15543</v>
       </c>
       <c r="V137" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.11184299104137538</v>
       </c>
       <c r="W137">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>4.0217047674822363E-2</v>
       </c>
       <c r="X137">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>5.4147760325770795E-2</v>
       </c>
       <c r="Y137">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.11443434075431953</v>
       </c>
       <c r="Z137">
-        <f>SUM(L137,O137,R137,U137)/SUM(J137:U137)</f>
+        <f t="shared" si="12"/>
         <v>0.135421233949264</v>
       </c>
       <c r="AB137" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="138" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>0</v>
       </c>
@@ -12739,30 +12584,30 @@
         <v>13157</v>
       </c>
       <c r="V138" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1.3339546804916409E-2</v>
       </c>
       <c r="W138">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>7.8158005914659903E-3</v>
       </c>
       <c r="X138">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>8.8587806149035952E-3</v>
       </c>
       <c r="Y138">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1.2502717982170036E-2</v>
       </c>
       <c r="Z138">
-        <f>SUM(L138,O138,R138,U138)/SUM(J138:U138)</f>
+        <f t="shared" si="12"/>
         <v>0.54973767656385131</v>
       </c>
       <c r="AB138" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="139" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>0</v>
       </c>
@@ -12809,30 +12654,30 @@
         <v>1176</v>
       </c>
       <c r="V139" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1.0630587098332931E-2</v>
       </c>
       <c r="W139">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>5.7498802108289409E-3</v>
       </c>
       <c r="X139">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.9495412844036698E-2</v>
       </c>
       <c r="Y139">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>4.0065561828446549E-3</v>
       </c>
       <c r="Z139">
-        <f>SUM(L139,O139,R139,U139)/SUM(J139:U139)</f>
+        <f t="shared" si="12"/>
         <v>0.29099821746880572</v>
       </c>
       <c r="AB139" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="140" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>0</v>
       </c>
@@ -12897,30 +12742,30 @@
         <v>6018</v>
       </c>
       <c r="V140" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.11512041058033952</v>
       </c>
       <c r="W140">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.980170783425984E-2</v>
       </c>
       <c r="X140">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>7.1713341112407625E-2</v>
       </c>
       <c r="Y140">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.17436889250814333</v>
       </c>
       <c r="Z140">
-        <f>SUM(L140,O140,R140,U140)/SUM(J140:U140)</f>
+        <f t="shared" si="12"/>
         <v>0.32338417426625782</v>
       </c>
       <c r="AB140" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="141" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>0</v>
       </c>
@@ -12985,30 +12830,30 @@
         <v>1752</v>
       </c>
       <c r="V141" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>3.2202268911838021E-2</v>
       </c>
       <c r="W141">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1.8491949625378607E-2</v>
       </c>
       <c r="X141">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3.3639782699540328E-2</v>
       </c>
       <c r="Y141">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>4.7944083437994868E-2</v>
       </c>
       <c r="Z141">
-        <f>SUM(L141,O141,R141,U141)/SUM(J141:U141)</f>
+        <f t="shared" si="12"/>
         <v>0.10677109822669786</v>
       </c>
       <c r="AB141" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="142" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>0</v>
       </c>
@@ -13055,30 +12900,30 @@
         <v>3727</v>
       </c>
       <c r="V142" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W142">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X142">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y142">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Z142">
-        <f>SUM(L142,O142,R142,U142)/SUM(J142:U142)</f>
+        <f t="shared" si="12"/>
         <v>0.37037139383220957</v>
       </c>
       <c r="AB142" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="143" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>0</v>
       </c>
@@ -13143,30 +12988,30 @@
         <v>1672</v>
       </c>
       <c r="V143" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.70490156689433503</v>
       </c>
       <c r="W143">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.61974299065420557</v>
       </c>
       <c r="X143">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.70854890367085488</v>
       </c>
       <c r="Y143">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.75862068965517238</v>
       </c>
       <c r="Z143">
-        <f>SUM(L143,O143,R143,U143)/SUM(J143:U143)</f>
+        <f t="shared" si="12"/>
         <v>0.27224728316588065</v>
       </c>
       <c r="AB143" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="144" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>0</v>
       </c>
@@ -13231,30 +13076,30 @@
         <v>473</v>
       </c>
       <c r="V144" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.76313079299691045</v>
       </c>
       <c r="W144">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.76666666666666672</v>
       </c>
       <c r="X144">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.72585438335809804</v>
       </c>
       <c r="Y144">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.77292366778684585</v>
       </c>
       <c r="Z144">
-        <f>SUM(L144,O144,R144,U144)/SUM(J144:U144)</f>
+        <f t="shared" si="12"/>
         <v>0.2413793103448276</v>
       </c>
       <c r="AB144" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="145" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>0</v>
       </c>
@@ -13301,23 +13146,23 @@
         <v>58</v>
       </c>
       <c r="V145" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.18181818181818182</v>
       </c>
       <c r="W145">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X145">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y145">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>4.5454545454545456E-2</v>
       </c>
       <c r="Z145">
-        <f>SUM(L145,O145,R145,U145)/SUM(J145:U145)</f>
+        <f t="shared" si="12"/>
         <v>0.74460431654676262</v>
       </c>
       <c r="AB145" t="s">
